--- a/Pre & Post-processing.xlsx
+++ b/Pre & Post-processing.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\git\MFreeMethods\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27960" windowHeight="13860"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27960" windowHeight="13860" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Pre-process" sheetId="1" r:id="rId1"/>
+    <sheet name="Post-process" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Столбец1</t>
   </si>
@@ -23,6 +29,24 @@
   </si>
   <si>
     <t>Столбец3</t>
+  </si>
+  <si>
+    <t>Delta X</t>
+  </si>
+  <si>
+    <t>Delta Y</t>
+  </si>
+  <si>
+    <t>Node ID</t>
+  </si>
+  <si>
+    <t>Deformed Location X</t>
+  </si>
+  <si>
+    <t>Deformed Location Y</t>
+  </si>
+  <si>
+    <t>Scale Factor</t>
   </si>
 </sst>
 </file>
@@ -58,17 +82,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -104,7 +145,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$176</c:f>
+              <c:f>'Pre-process'!$B$2:$B$176</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="175"/>
@@ -638,7 +679,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$176</c:f>
+              <c:f>'Pre-process'!$C$2:$C$176</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="175"/>
@@ -1182,7 +1223,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$G$3:$G$57</c:f>
+              <c:f>'Pre-process'!$G$3:$G$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="55"/>
@@ -1356,7 +1397,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$H$3:$H$57</c:f>
+              <c:f>'Pre-process'!$H$3:$H$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="55"/>
@@ -1538,11 +1579,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="212654272"/>
-        <c:axId val="212653696"/>
+        <c:axId val="175998832"/>
+        <c:axId val="177534368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="212654272"/>
+        <c:axId val="175998832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1558,12 +1599,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212653696"/>
+        <c:crossAx val="177534368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="212653696"/>
+        <c:axId val="177534368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1579,7 +1620,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212654272"/>
+        <c:crossAx val="175998832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1601,6 +1642,3076 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cantilever</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Beam Study</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront">
+                  <a:rot lat="0" lon="0" rev="0"/>
+                </a:camera>
+                <a:lightRig rig="threePt" dir="t">
+                  <a:rot lat="0" lon="0" rev="1200000"/>
+                </a:lightRig>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="63500" h="25400"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Post-process'!$F$4:$F$178</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="175"/>
+                <c:pt idx="0">
+                  <c:v>-2.1630000000000001E-11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.06482E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8.5185000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0515E-25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5185000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.06482E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1630000000000001E-11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.019593</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0120124499999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0056930999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9943069</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9879875499999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.980407</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.0384465000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0246029999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.0120805500000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.0000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.9879194500000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.9753970000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.9615534999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.0552510000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.0361694999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.0177389999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.0000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.9822610000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.9638305000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.9447489999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.0733364999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.0478664999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.0237224999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.0000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.9762775000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.9521335000000004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.9266635000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10.089570999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10.0586875</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10.029104500000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.9708954999999992</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.9413125000000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.9104290000000006</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12.104835</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12.068769</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12.034150500000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12.000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11.965849499999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11.931231</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>11.895165</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>14.119149500000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14.078327</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>14.0389085</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14.000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13.9610915</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13.921673</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>13.880850499999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>16.132867000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>16.087535500000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>16.043493999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>16.000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>15.956505999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>15.9124645</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>15.867133000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>18.146311499999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>18.096270000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>18.047938500000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>18.000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>17.952061499999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>17.903729999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>17.853688500000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>20.157364999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>20.1040505</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>20.0517185</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>20.000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>19.9482815</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>19.8959495</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>19.842635000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>22.168780000000002</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>22.111695999999998</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>22.055557</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>22.000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>21.944443</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>21.888304000000002</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>21.831219999999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>24.179565</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>24.118677000000002</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>24.059090999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>24.000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>23.940909000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>23.881322999999998</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>23.820435</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>26.189435</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>26.1250505</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>26.062315999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>26.000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>25.937684000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>25.8749495</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>25.810565</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>28.198090000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>28.130880999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>28.0652185</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>28.000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>27.9347815</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>27.869119000000001</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>27.801909999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>30.205439999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>30.136026000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>30.067727999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>30.000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>29.932272000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>29.863973999999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>29.794560000000001</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>32.212955000000001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>32.1409235</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>32.0702195</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>31.9297805</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>31.8590765</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>31.787044999999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>34.219194999999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>34.145075499999997</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>34.072286499999997</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>33.927713500000003</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>33.854924500000003</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>33.780805000000001</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>36.224595000000001</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>36.148609499999999</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>36.074066999999999</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>35.925933000000001</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>35.851390500000001</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>35.775404999999999</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>38.229050000000001</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>38.151620000000001</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>38.075556499999998</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>37.924443500000002</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>37.848379999999999</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>37.770949999999999</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>40.232799999999997</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>40.154155000000003</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>40.0768165</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>40.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>39.9231835</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>39.845844999999997</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>39.767200000000003</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>42.235754999999997</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>42.156075000000001</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>42.077797500000003</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>42.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>41.922202499999997</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>41.843924999999999</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>41.764245000000003</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>44.237585000000003</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>44.157380000000003</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>44.078430500000003</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>44.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>43.921569499999997</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>43.842619999999997</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>43.762414999999997</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>46.238934999999998</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>46.158295000000003</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>46.0789045</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>46.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>45.9210955</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>45.841704999999997</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>45.761065000000002</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>48.239370000000001</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>48.158594999999998</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>48.079056000000001</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>48.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>47.920943999999999</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>47.841405000000002</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>47.760629999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Post-process'!$G$4:$G$178</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="175"/>
+                <c:pt idx="0">
+                  <c:v>5.9909999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9959999499999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9989999949999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4742999999999998E-12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.0010000049999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.0040000500000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6.0090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.9857945499999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9907283499999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.99356125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.4244499999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.00643875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.0092716499999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-6.0142054500000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.9740605000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.9785200000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9813324999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.7791500000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.0186674999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-4.0214800000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-6.0259394999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.9567730000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.9610975000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.9637525</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3.5385E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2.0362475</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-4.0389024999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-6.0432269999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.9335604999999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.9377365000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.940183</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-5.8958999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-2.0598169999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-4.0622635000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-6.0664395000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.9045249999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.9083860000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.9107425</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-8.8513500000000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-2.0892575</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-4.0916139999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-6.0954750000000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.8700939999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.8737629999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.87598</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.1232805</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-2.1240199999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-4.1262369999999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-6.1299060000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.8309049999999996</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.8343699999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.83653</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.16281000000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-2.1634699999999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-4.1656300000000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-6.1690950000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.7869400000000004</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.7903000000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.792295</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.207015</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-2.2077049999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-4.2096999999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-6.2130599999999996</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.7382200000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.741295</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.743185</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.25621499999999997</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-2.256815</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-4.258705</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-6.2617799999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.6857199999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.6885699999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.690415</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.30904500000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-2.3095850000000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-4.3114299999999997</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-6.3142800000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.6294699999999995</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.6322000000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.633805</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.36562499999999998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-2.3661949999999998</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-4.3677999999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-6.3705300000000005</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.5695449999999997</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.5720200000000002</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.573475</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.42603000000000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-2.4265249999999998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-4.4279799999999998</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-6.4304550000000003</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5.5059750000000003</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.5082849999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.5096350000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.48989999999999995</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-2.4903650000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-4.4917150000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-6.4940249999999997</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.4393899999999995</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.4414150000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.4427050000000001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-0.55691999999999997</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-2.5572949999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-4.5585849999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-6.5606100000000005</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5.3703450000000004</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3.3722050000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.3733599999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-0.62626500000000007</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-2.6266400000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-4.6277949999999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-6.6296549999999996</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5.298705</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3.30037</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.301345</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-0.69830999999999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-2.698655</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-4.69963</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-6.701295</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>5.2247699999999995</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3.2261950000000001</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.2270500000000002</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-0.77268000000000003</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-2.7729499999999998</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-4.7738050000000003</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-6.7752300000000005</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>5.1488399999999999</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>3.1500699999999999</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.1508050000000001</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-0.84895500000000002</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-2.8491949999999999</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-4.8499299999999996</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-6.8511600000000001</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>5.0713200000000001</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3.0723400000000001</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.0729850000000001</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-0.92681999999999998</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-2.9270149999999999</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-4.9276599999999995</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-6.9286799999999999</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>4.9924049999999998</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.9932600000000003</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.99377000000000004</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-1.006065</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-3.00623</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-5.0067399999999997</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-7.0075950000000002</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>4.9122599999999998</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2.9128750000000001</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.91323500000000002</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-1.0866450000000001</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-3.0867649999999998</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-5.0871250000000003</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-7.0877400000000002</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>4.8315149999999996</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2.8319350000000001</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.83223500000000006</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-1.1676899999999999</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-3.1677650000000002</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-5.1680650000000004</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-7.1684850000000004</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>4.7501699999999998</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2.7503799999999998</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.75048500000000007</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-1.2494700000000001</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-3.2495149999999997</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-5.2496200000000002</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-7.2498300000000002</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>4.6685549999999996</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2.6684950000000001</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.66849500000000006</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-1.33158</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-3.3315049999999999</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-5.3315049999999999</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-7.3314450000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Undeformed</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="74000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Pre-process'!$B$2:$B$176</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="175"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Pre-process'!$C$2:$C$176</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="175"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="253687008"/>
+        <c:axId val="253686448"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="253687008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="253686448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="253686448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="253687008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1615,6 +4726,41 @@
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1228724</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>52386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1657,6 +4803,24 @@
     <tableColumn id="3" name="Столбец3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="C3:G178" totalsRowShown="0">
+  <autoFilter ref="C3:G178"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Node ID"/>
+    <tableColumn id="2" name="Delta X" dataDxfId="3"/>
+    <tableColumn id="3" name="Delta Y" dataDxfId="2"/>
+    <tableColumn id="4" name="Deformed Location X" dataDxfId="1">
+      <calculatedColumnFormula>'Pre-process'!B2+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Deformed Location Y" dataDxfId="0">
+      <calculatedColumnFormula>'Pre-process'!C2+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1703,7 +4867,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1738,7 +4902,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1949,7 +5113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -4407,4 +7571,3378 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:L178"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="5" width="11.25" customWidth="1"/>
+    <col min="6" max="7" width="21.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-1.4420000000000001E-13</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-6.0000000000000002E-5</v>
+      </c>
+      <c r="F4">
+        <f>'Pre-process'!B2+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>-2.1630000000000001E-11</v>
+      </c>
+      <c r="G4">
+        <f>'Pre-process'!C2+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>5.9909999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-7.0987999999999997E-6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-2.6667000000000001E-5</v>
+      </c>
+      <c r="F5">
+        <f>'Pre-process'!B3+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>-1.06482E-3</v>
+      </c>
+      <c r="G5">
+        <f>'Pre-process'!C3+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>3.9959999499999999</v>
+      </c>
+      <c r="J5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-5.6790000000000002E-6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-6.6667000000000001E-6</v>
+      </c>
+      <c r="F6">
+        <f>'Pre-process'!B4+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>-8.5185000000000002E-4</v>
+      </c>
+      <c r="G6">
+        <f>'Pre-process'!C4+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>1.9989999949999999</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.7010000000000001E-27</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.3161999999999999E-14</v>
+      </c>
+      <c r="F7">
+        <f>'Pre-process'!B5+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>4.0515E-25</v>
+      </c>
+      <c r="G7">
+        <f>'Pre-process'!C5+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>3.4742999999999998E-12</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5.6790000000000002E-6</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-6.6667000000000001E-6</v>
+      </c>
+      <c r="F8">
+        <f>'Pre-process'!B6+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>8.5185000000000002E-4</v>
+      </c>
+      <c r="G8">
+        <f>'Pre-process'!C6+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-2.0010000049999999</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7.0987999999999997E-6</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-2.6667000000000001E-5</v>
+      </c>
+      <c r="F9">
+        <f>'Pre-process'!B7+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>1.06482E-3</v>
+      </c>
+      <c r="G9">
+        <f>'Pre-process'!C7+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-4.0040000500000001</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.4420000000000001E-13</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-6.0000000000000002E-5</v>
+      </c>
+      <c r="F10">
+        <f>'Pre-process'!B8+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>2.1630000000000001E-11</v>
+      </c>
+      <c r="G10">
+        <f>'Pre-process'!C8+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-6.0090000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.3061999999999999E-4</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-9.4703000000000005E-5</v>
+      </c>
+      <c r="F11">
+        <f>'Pre-process'!B9+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>2.019593</v>
+      </c>
+      <c r="G11">
+        <f>'Pre-process'!C9+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>5.9857945499999996</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1">
+        <v>8.0082999999999999E-5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-6.1810999999999995E-5</v>
+      </c>
+      <c r="F12">
+        <f>'Pre-process'!B10+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>2.0120124499999998</v>
+      </c>
+      <c r="G12">
+        <f>'Pre-process'!C10+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>3.9907283499999999</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3.7954000000000003E-5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-4.2925E-5</v>
+      </c>
+      <c r="F13">
+        <f>'Pre-process'!B11+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>2.0056930999999998</v>
+      </c>
+      <c r="G13">
+        <f>'Pre-process'!C11+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>1.99356125</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.1311E-19</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-3.6162999999999999E-5</v>
+      </c>
+      <c r="F14">
+        <f>'Pre-process'!B12+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <f>'Pre-process'!C12+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-5.4244499999999999E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-3.7954000000000003E-5</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-4.2925E-5</v>
+      </c>
+      <c r="F15">
+        <f>'Pre-process'!B13+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>1.9943069</v>
+      </c>
+      <c r="G15">
+        <f>'Pre-process'!C13+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-2.00643875</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-8.0082999999999999E-5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-6.1810999999999995E-5</v>
+      </c>
+      <c r="F16">
+        <f>'Pre-process'!B14+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>1.9879875499999999</v>
+      </c>
+      <c r="G16">
+        <f>'Pre-process'!C14+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-4.0092716499999996</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>14</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-1.3061999999999999E-4</v>
+      </c>
+      <c r="E17" s="1">
+        <v>-9.4703000000000005E-5</v>
+      </c>
+      <c r="F17">
+        <f>'Pre-process'!B15+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>1.980407</v>
+      </c>
+      <c r="G17">
+        <f>'Pre-process'!C15+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-6.0142054500000004</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2.5630999999999999E-4</v>
+      </c>
+      <c r="E18" s="1">
+        <v>-1.7293000000000001E-4</v>
+      </c>
+      <c r="F18">
+        <f>'Pre-process'!B16+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>4.0384465000000001</v>
+      </c>
+      <c r="G18">
+        <f>'Pre-process'!C16+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>5.9740605000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.6401999999999999E-4</v>
+      </c>
+      <c r="E19" s="1">
+        <v>-1.4320000000000001E-4</v>
+      </c>
+      <c r="F19">
+        <f>'Pre-process'!B17+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>4.0246029999999999</v>
+      </c>
+      <c r="G19">
+        <f>'Pre-process'!C17+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>3.9785200000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>17</v>
+      </c>
+      <c r="D20" s="1">
+        <v>8.0537000000000005E-5</v>
+      </c>
+      <c r="E20" s="1">
+        <v>-1.2444999999999999E-4</v>
+      </c>
+      <c r="F20">
+        <f>'Pre-process'!B18+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>4.0120805500000003</v>
+      </c>
+      <c r="G20">
+        <f>'Pre-process'!C18+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>1.9813324999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>18</v>
+      </c>
+      <c r="D21" s="1">
+        <v>7.9936000000000004E-18</v>
+      </c>
+      <c r="E21" s="1">
+        <v>-1.1861E-4</v>
+      </c>
+      <c r="F21">
+        <f>'Pre-process'!B19+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>4.0000000000000009</v>
+      </c>
+      <c r="G21">
+        <f>'Pre-process'!C19+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-1.7791500000000002E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>19</v>
+      </c>
+      <c r="D22" s="1">
+        <v>-8.0537000000000005E-5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>-1.2444999999999999E-4</v>
+      </c>
+      <c r="F22">
+        <f>'Pre-process'!B20+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>3.9879194500000001</v>
+      </c>
+      <c r="G22">
+        <f>'Pre-process'!C20+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-2.0186674999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1">
+        <v>-1.6401999999999999E-4</v>
+      </c>
+      <c r="E23" s="1">
+        <v>-1.4320000000000001E-4</v>
+      </c>
+      <c r="F23">
+        <f>'Pre-process'!B21+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>3.9753970000000001</v>
+      </c>
+      <c r="G23">
+        <f>'Pre-process'!C21+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-4.0214800000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>21</v>
+      </c>
+      <c r="D24" s="1">
+        <v>-2.5630999999999999E-4</v>
+      </c>
+      <c r="E24" s="1">
+        <v>-1.7293000000000001E-4</v>
+      </c>
+      <c r="F24">
+        <f>'Pre-process'!B22+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>3.9615534999999999</v>
+      </c>
+      <c r="G24">
+        <f>'Pre-process'!C22+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-6.0259394999999998</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>22</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3.6833999999999999E-4</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-2.8818000000000002E-4</v>
+      </c>
+      <c r="F25">
+        <f>'Pre-process'!B23+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>6.0552510000000002</v>
+      </c>
+      <c r="G25">
+        <f>'Pre-process'!C23+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>5.9567730000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>23</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2.4112999999999999E-4</v>
+      </c>
+      <c r="E26" s="1">
+        <v>-2.5934999999999999E-4</v>
+      </c>
+      <c r="F26">
+        <f>'Pre-process'!B24+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>6.0361694999999997</v>
+      </c>
+      <c r="G26">
+        <f>'Pre-process'!C24+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>3.9610975000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>24</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.1826E-4</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-2.4164999999999999E-4</v>
+      </c>
+      <c r="F27">
+        <f>'Pre-process'!B25+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>6.0177389999999997</v>
+      </c>
+      <c r="G27">
+        <f>'Pre-process'!C25+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>1.9637525</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>25</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3.6955000000000001E-18</v>
+      </c>
+      <c r="E28" s="1">
+        <v>-2.3589999999999999E-4</v>
+      </c>
+      <c r="F28">
+        <f>'Pre-process'!B26+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>6.0000000000000009</v>
+      </c>
+      <c r="G28">
+        <f>'Pre-process'!C26+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-3.5385E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>26</v>
+      </c>
+      <c r="D29" s="1">
+        <v>-1.1826E-4</v>
+      </c>
+      <c r="E29" s="1">
+        <v>-2.4164999999999999E-4</v>
+      </c>
+      <c r="F29">
+        <f>'Pre-process'!B27+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>5.9822610000000003</v>
+      </c>
+      <c r="G29">
+        <f>'Pre-process'!C27+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-2.0362475</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>27</v>
+      </c>
+      <c r="D30" s="1">
+        <v>-2.4112999999999999E-4</v>
+      </c>
+      <c r="E30" s="1">
+        <v>-2.5934999999999999E-4</v>
+      </c>
+      <c r="F30">
+        <f>'Pre-process'!B28+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>5.9638305000000003</v>
+      </c>
+      <c r="G30">
+        <f>'Pre-process'!C28+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-4.0389024999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>28</v>
+      </c>
+      <c r="D31" s="1">
+        <v>-3.6833999999999999E-4</v>
+      </c>
+      <c r="E31" s="1">
+        <v>-2.8818000000000002E-4</v>
+      </c>
+      <c r="F31">
+        <f>'Pre-process'!B29+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>5.9447489999999998</v>
+      </c>
+      <c r="G31">
+        <f>'Pre-process'!C29+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-6.0432269999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>29</v>
+      </c>
+      <c r="D32" s="1">
+        <v>4.8890999999999995E-4</v>
+      </c>
+      <c r="E32" s="1">
+        <v>-4.4293000000000002E-4</v>
+      </c>
+      <c r="F32">
+        <f>'Pre-process'!B30+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>8.0733364999999999</v>
+      </c>
+      <c r="G32">
+        <f>'Pre-process'!C30+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>5.9335604999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>30</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3.1911E-4</v>
+      </c>
+      <c r="E33" s="1">
+        <v>-4.1509000000000001E-4</v>
+      </c>
+      <c r="F33">
+        <f>'Pre-process'!B31+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>8.0478664999999996</v>
+      </c>
+      <c r="G33">
+        <f>'Pre-process'!C31+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>3.9377365000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>31</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1.5815E-4</v>
+      </c>
+      <c r="E34" s="1">
+        <v>-3.9878E-4</v>
+      </c>
+      <c r="F34">
+        <f>'Pre-process'!B32+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>8.0237224999999999</v>
+      </c>
+      <c r="G34">
+        <f>'Pre-process'!C32+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>1.940183</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>32</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1.7981E-17</v>
+      </c>
+      <c r="E35" s="1">
+        <v>-3.9305999999999998E-4</v>
+      </c>
+      <c r="F35">
+        <f>'Pre-process'!B33+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>8.0000000000000036</v>
+      </c>
+      <c r="G35">
+        <f>'Pre-process'!C33+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-5.8958999999999998E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>33</v>
+      </c>
+      <c r="D36" s="1">
+        <v>-1.5815E-4</v>
+      </c>
+      <c r="E36" s="1">
+        <v>-3.9878E-4</v>
+      </c>
+      <c r="F36">
+        <f>'Pre-process'!B34+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>7.9762775000000001</v>
+      </c>
+      <c r="G36">
+        <f>'Pre-process'!C34+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-2.0598169999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <v>34</v>
+      </c>
+      <c r="D37" s="1">
+        <v>-3.1911E-4</v>
+      </c>
+      <c r="E37" s="1">
+        <v>-4.1509000000000001E-4</v>
+      </c>
+      <c r="F37">
+        <f>'Pre-process'!B35+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>7.9521335000000004</v>
+      </c>
+      <c r="G37">
+        <f>'Pre-process'!C35+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-4.0622635000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>35</v>
+      </c>
+      <c r="D38" s="1">
+        <v>-4.8890999999999995E-4</v>
+      </c>
+      <c r="E38" s="1">
+        <v>-4.4293000000000002E-4</v>
+      </c>
+      <c r="F38">
+        <f>'Pre-process'!B36+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>7.9266635000000001</v>
+      </c>
+      <c r="G38">
+        <f>'Pre-process'!C36+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-6.0664395000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>36</v>
+      </c>
+      <c r="D39" s="1">
+        <v>5.9714000000000002E-4</v>
+      </c>
+      <c r="E39" s="1">
+        <v>-6.3650000000000002E-4</v>
+      </c>
+      <c r="F39">
+        <f>'Pre-process'!B37+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>10.089570999999999</v>
+      </c>
+      <c r="G39">
+        <f>'Pre-process'!C37+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>5.9045249999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>37</v>
+      </c>
+      <c r="D40" s="1">
+        <v>3.9125E-4</v>
+      </c>
+      <c r="E40" s="1">
+        <v>-6.1076000000000001E-4</v>
+      </c>
+      <c r="F40">
+        <f>'Pre-process'!B38+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>10.0586875</v>
+      </c>
+      <c r="G40">
+        <f>'Pre-process'!C38+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>3.9083860000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>38</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1.9403000000000001E-4</v>
+      </c>
+      <c r="E41" s="1">
+        <v>-5.9504999999999996E-4</v>
+      </c>
+      <c r="F41">
+        <f>'Pre-process'!B39+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>10.029104500000001</v>
+      </c>
+      <c r="G41">
+        <f>'Pre-process'!C39+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>1.9107425</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>39</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1.2173E-17</v>
+      </c>
+      <c r="E42" s="1">
+        <v>-5.9009000000000004E-4</v>
+      </c>
+      <c r="F42">
+        <f>'Pre-process'!B40+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>10.000000000000002</v>
+      </c>
+      <c r="G42">
+        <f>'Pre-process'!C40+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-8.8513500000000009E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <v>40</v>
+      </c>
+      <c r="D43" s="1">
+        <v>-1.9403000000000001E-4</v>
+      </c>
+      <c r="E43" s="1">
+        <v>-5.9504999999999996E-4</v>
+      </c>
+      <c r="F43">
+        <f>'Pre-process'!B41+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>9.9708954999999992</v>
+      </c>
+      <c r="G43">
+        <f>'Pre-process'!C41+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-2.0892575</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <v>41</v>
+      </c>
+      <c r="D44" s="1">
+        <v>-3.9125E-4</v>
+      </c>
+      <c r="E44" s="1">
+        <v>-6.1076000000000001E-4</v>
+      </c>
+      <c r="F44">
+        <f>'Pre-process'!B42+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>9.9413125000000004</v>
+      </c>
+      <c r="G44">
+        <f>'Pre-process'!C42+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-4.0916139999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <v>42</v>
+      </c>
+      <c r="D45" s="1">
+        <v>-5.9714000000000002E-4</v>
+      </c>
+      <c r="E45" s="1">
+        <v>-6.3650000000000002E-4</v>
+      </c>
+      <c r="F45">
+        <f>'Pre-process'!B43+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>9.9104290000000006</v>
+      </c>
+      <c r="G45">
+        <f>'Pre-process'!C43+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-6.0954750000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <v>43</v>
+      </c>
+      <c r="D46" s="1">
+        <v>6.9890000000000002E-4</v>
+      </c>
+      <c r="E46" s="1">
+        <v>-8.6604E-4</v>
+      </c>
+      <c r="F46">
+        <f>'Pre-process'!B44+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>12.104835</v>
+      </c>
+      <c r="G46">
+        <f>'Pre-process'!C44+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>5.8700939999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <v>44</v>
+      </c>
+      <c r="D47" s="1">
+        <v>4.5846E-4</v>
+      </c>
+      <c r="E47" s="1">
+        <v>-8.4157999999999998E-4</v>
+      </c>
+      <c r="F47">
+        <f>'Pre-process'!B45+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>12.068769</v>
+      </c>
+      <c r="G47">
+        <f>'Pre-process'!C45+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>3.8737629999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C48">
+        <v>45</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2.2766999999999999E-4</v>
+      </c>
+      <c r="E48" s="1">
+        <v>-8.2680000000000004E-4</v>
+      </c>
+      <c r="F48">
+        <f>'Pre-process'!B46+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>12.034150500000001</v>
+      </c>
+      <c r="G48">
+        <f>'Pre-process'!C46+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>1.87598</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C49">
+        <v>46</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1.2978E-17</v>
+      </c>
+      <c r="E49" s="1">
+        <v>-8.2187000000000004E-4</v>
+      </c>
+      <c r="F49">
+        <f>'Pre-process'!B47+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>12.000000000000002</v>
+      </c>
+      <c r="G49">
+        <f>'Pre-process'!C47+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-0.1232805</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C50">
+        <v>47</v>
+      </c>
+      <c r="D50" s="1">
+        <v>-2.2766999999999999E-4</v>
+      </c>
+      <c r="E50" s="1">
+        <v>-8.2680000000000004E-4</v>
+      </c>
+      <c r="F50">
+        <f>'Pre-process'!B48+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>11.965849499999999</v>
+      </c>
+      <c r="G50">
+        <f>'Pre-process'!C48+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-2.1240199999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C51">
+        <v>48</v>
+      </c>
+      <c r="D51" s="1">
+        <v>-4.5846E-4</v>
+      </c>
+      <c r="E51" s="1">
+        <v>-8.4157999999999998E-4</v>
+      </c>
+      <c r="F51">
+        <f>'Pre-process'!B49+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>11.931231</v>
+      </c>
+      <c r="G51">
+        <f>'Pre-process'!C49+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-4.1262369999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C52">
+        <v>49</v>
+      </c>
+      <c r="D52" s="1">
+        <v>-6.9890000000000002E-4</v>
+      </c>
+      <c r="E52" s="1">
+        <v>-8.6604E-4</v>
+      </c>
+      <c r="F52">
+        <f>'Pre-process'!B50+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>11.895165</v>
+      </c>
+      <c r="G52">
+        <f>'Pre-process'!C50+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-6.1299060000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C53">
+        <v>50</v>
+      </c>
+      <c r="D53" s="1">
+        <v>7.9432999999999999E-4</v>
+      </c>
+      <c r="E53" s="1">
+        <v>-1.1272999999999999E-3</v>
+      </c>
+      <c r="F53">
+        <f>'Pre-process'!B51+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>14.119149500000001</v>
+      </c>
+      <c r="G53">
+        <f>'Pre-process'!C51+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>5.8309049999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C54">
+        <v>51</v>
+      </c>
+      <c r="D54" s="1">
+        <v>5.2218000000000002E-4</v>
+      </c>
+      <c r="E54" s="1">
+        <v>-1.1042000000000001E-3</v>
+      </c>
+      <c r="F54">
+        <f>'Pre-process'!B52+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>14.078327</v>
+      </c>
+      <c r="G54">
+        <f>'Pre-process'!C52+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>3.8343699999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C55">
+        <v>52</v>
+      </c>
+      <c r="D55" s="1">
+        <v>2.5939000000000002E-4</v>
+      </c>
+      <c r="E55" s="1">
+        <v>-1.0897999999999999E-3</v>
+      </c>
+      <c r="F55">
+        <f>'Pre-process'!B53+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>14.0389085</v>
+      </c>
+      <c r="G55">
+        <f>'Pre-process'!C53+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>1.83653</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C56">
+        <v>53</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1.6739E-17</v>
+      </c>
+      <c r="E56" s="1">
+        <v>-1.0854E-3</v>
+      </c>
+      <c r="F56">
+        <f>'Pre-process'!B54+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>14.000000000000002</v>
+      </c>
+      <c r="G56">
+        <f>'Pre-process'!C54+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-0.16281000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C57">
+        <v>54</v>
+      </c>
+      <c r="D57" s="1">
+        <v>-2.5939000000000002E-4</v>
+      </c>
+      <c r="E57" s="1">
+        <v>-1.0897999999999999E-3</v>
+      </c>
+      <c r="F57">
+        <f>'Pre-process'!B55+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>13.9610915</v>
+      </c>
+      <c r="G57">
+        <f>'Pre-process'!C55+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-2.1634699999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C58">
+        <v>55</v>
+      </c>
+      <c r="D58" s="1">
+        <v>-5.2218000000000002E-4</v>
+      </c>
+      <c r="E58" s="1">
+        <v>-1.1042000000000001E-3</v>
+      </c>
+      <c r="F58">
+        <f>'Pre-process'!B56+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>13.921673</v>
+      </c>
+      <c r="G58">
+        <f>'Pre-process'!C56+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-4.1656300000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C59">
+        <v>56</v>
+      </c>
+      <c r="D59" s="1">
+        <v>-7.9432999999999999E-4</v>
+      </c>
+      <c r="E59" s="1">
+        <v>-1.1272999999999999E-3</v>
+      </c>
+      <c r="F59">
+        <f>'Pre-process'!B57+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>13.880850499999999</v>
+      </c>
+      <c r="G59">
+        <f>'Pre-process'!C57+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-6.1690950000000004</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C60">
+        <v>57</v>
+      </c>
+      <c r="D60" s="1">
+        <v>8.8577999999999997E-4</v>
+      </c>
+      <c r="E60" s="1">
+        <v>-1.4204E-3</v>
+      </c>
+      <c r="F60">
+        <f>'Pre-process'!B58+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>16.132867000000001</v>
+      </c>
+      <c r="G60">
+        <f>'Pre-process'!C58+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>5.7869400000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C61">
+        <v>58</v>
+      </c>
+      <c r="D61" s="1">
+        <v>5.8357000000000005E-4</v>
+      </c>
+      <c r="E61" s="1">
+        <v>-1.3979999999999999E-3</v>
+      </c>
+      <c r="F61">
+        <f>'Pre-process'!B59+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>16.087535500000001</v>
+      </c>
+      <c r="G61">
+        <f>'Pre-process'!C59+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>3.7903000000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C62">
+        <v>59</v>
+      </c>
+      <c r="D62" s="1">
+        <v>2.8996000000000002E-4</v>
+      </c>
+      <c r="E62" s="1">
+        <v>-1.3847E-3</v>
+      </c>
+      <c r="F62">
+        <f>'Pre-process'!B60+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>16.043493999999999</v>
+      </c>
+      <c r="G62">
+        <f>'Pre-process'!C60+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>1.792295</v>
+      </c>
+    </row>
+    <row r="63" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C63">
+        <v>60</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1.3356E-17</v>
+      </c>
+      <c r="E63" s="1">
+        <v>-1.3801E-3</v>
+      </c>
+      <c r="F63">
+        <f>'Pre-process'!B61+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>16.000000000000004</v>
+      </c>
+      <c r="G63">
+        <f>'Pre-process'!C61+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-0.207015</v>
+      </c>
+    </row>
+    <row r="64" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C64">
+        <v>61</v>
+      </c>
+      <c r="D64" s="1">
+        <v>-2.8996000000000002E-4</v>
+      </c>
+      <c r="E64" s="1">
+        <v>-1.3847E-3</v>
+      </c>
+      <c r="F64">
+        <f>'Pre-process'!B62+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>15.956505999999999</v>
+      </c>
+      <c r="G64">
+        <f>'Pre-process'!C62+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-2.2077049999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C65">
+        <v>62</v>
+      </c>
+      <c r="D65" s="1">
+        <v>-5.8357000000000005E-4</v>
+      </c>
+      <c r="E65" s="1">
+        <v>-1.3979999999999999E-3</v>
+      </c>
+      <c r="F65">
+        <f>'Pre-process'!B63+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>15.9124645</v>
+      </c>
+      <c r="G65">
+        <f>'Pre-process'!C63+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-4.2096999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C66">
+        <v>63</v>
+      </c>
+      <c r="D66" s="1">
+        <v>-8.8577999999999997E-4</v>
+      </c>
+      <c r="E66" s="1">
+        <v>-1.4204E-3</v>
+      </c>
+      <c r="F66">
+        <f>'Pre-process'!B64+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>15.867133000000001</v>
+      </c>
+      <c r="G66">
+        <f>'Pre-process'!C64+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-6.2130599999999996</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C67">
+        <v>64</v>
+      </c>
+      <c r="D67" s="1">
+        <v>9.7541000000000001E-4</v>
+      </c>
+      <c r="E67" s="1">
+        <v>-1.7451999999999999E-3</v>
+      </c>
+      <c r="F67">
+        <f>'Pre-process'!B65+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>18.146311499999999</v>
+      </c>
+      <c r="G67">
+        <f>'Pre-process'!C65+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>5.7382200000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C68">
+        <v>65</v>
+      </c>
+      <c r="D68" s="1">
+        <v>6.4179999999999999E-4</v>
+      </c>
+      <c r="E68" s="1">
+        <v>-1.7247E-3</v>
+      </c>
+      <c r="F68">
+        <f>'Pre-process'!B66+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>18.096270000000001</v>
+      </c>
+      <c r="G68">
+        <f>'Pre-process'!C66+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>3.741295</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C69">
+        <v>66</v>
+      </c>
+      <c r="D69" s="1">
+        <v>3.1959000000000002E-4</v>
+      </c>
+      <c r="E69" s="1">
+        <v>-1.7121E-3</v>
+      </c>
+      <c r="F69">
+        <f>'Pre-process'!B67+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>18.047938500000001</v>
+      </c>
+      <c r="G69">
+        <f>'Pre-process'!C67+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>1.743185</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C70">
+        <v>67</v>
+      </c>
+      <c r="D70" s="1">
+        <v>2.1051E-17</v>
+      </c>
+      <c r="E70" s="1">
+        <v>-1.7080999999999999E-3</v>
+      </c>
+      <c r="F70">
+        <f>'Pre-process'!B68+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>18.000000000000004</v>
+      </c>
+      <c r="G70">
+        <f>'Pre-process'!C68+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-0.25621499999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C71">
+        <v>68</v>
+      </c>
+      <c r="D71" s="1">
+        <v>-3.1959000000000002E-4</v>
+      </c>
+      <c r="E71" s="1">
+        <v>-1.7121E-3</v>
+      </c>
+      <c r="F71">
+        <f>'Pre-process'!B69+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>17.952061499999999</v>
+      </c>
+      <c r="G71">
+        <f>'Pre-process'!C69+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-2.256815</v>
+      </c>
+    </row>
+    <row r="72" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C72">
+        <v>69</v>
+      </c>
+      <c r="D72" s="1">
+        <v>-6.4179999999999999E-4</v>
+      </c>
+      <c r="E72" s="1">
+        <v>-1.7247E-3</v>
+      </c>
+      <c r="F72">
+        <f>'Pre-process'!B70+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>17.903729999999999</v>
+      </c>
+      <c r="G72">
+        <f>'Pre-process'!C70+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-4.258705</v>
+      </c>
+    </row>
+    <row r="73" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C73">
+        <v>70</v>
+      </c>
+      <c r="D73" s="1">
+        <v>-9.7541000000000001E-4</v>
+      </c>
+      <c r="E73" s="1">
+        <v>-1.7451999999999999E-3</v>
+      </c>
+      <c r="F73">
+        <f>'Pre-process'!B71+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>17.853688500000001</v>
+      </c>
+      <c r="G73">
+        <f>'Pre-process'!C71+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-6.2617799999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C74">
+        <v>71</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1.0491000000000001E-3</v>
+      </c>
+      <c r="E74" s="1">
+        <v>-2.0952000000000002E-3</v>
+      </c>
+      <c r="F74">
+        <f>'Pre-process'!B72+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>20.157364999999999</v>
+      </c>
+      <c r="G74">
+        <f>'Pre-process'!C72+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>5.6857199999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C75">
+        <v>72</v>
+      </c>
+      <c r="D75" s="1">
+        <v>6.9366999999999996E-4</v>
+      </c>
+      <c r="E75" s="1">
+        <v>-2.0761999999999998E-3</v>
+      </c>
+      <c r="F75">
+        <f>'Pre-process'!B73+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>20.1040505</v>
+      </c>
+      <c r="G75">
+        <f>'Pre-process'!C73+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>3.6885699999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C76">
+        <v>73</v>
+      </c>
+      <c r="D76" s="1">
+        <v>3.4478999999999998E-4</v>
+      </c>
+      <c r="E76" s="1">
+        <v>-2.0639E-3</v>
+      </c>
+      <c r="F76">
+        <f>'Pre-process'!B74+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>20.0517185</v>
+      </c>
+      <c r="G76">
+        <f>'Pre-process'!C74+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>1.690415</v>
+      </c>
+    </row>
+    <row r="77" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C77">
+        <v>74</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1.6929999999999999E-17</v>
+      </c>
+      <c r="E77" s="1">
+        <v>-2.0603000000000002E-3</v>
+      </c>
+      <c r="F77">
+        <f>'Pre-process'!B75+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>20.000000000000004</v>
+      </c>
+      <c r="G77">
+        <f>'Pre-process'!C75+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-0.30904500000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C78">
+        <v>75</v>
+      </c>
+      <c r="D78" s="1">
+        <v>-3.4478999999999998E-4</v>
+      </c>
+      <c r="E78" s="1">
+        <v>-2.0639E-3</v>
+      </c>
+      <c r="F78">
+        <f>'Pre-process'!B76+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>19.9482815</v>
+      </c>
+      <c r="G78">
+        <f>'Pre-process'!C76+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-2.3095850000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C79">
+        <v>76</v>
+      </c>
+      <c r="D79" s="1">
+        <v>-6.9366999999999996E-4</v>
+      </c>
+      <c r="E79" s="1">
+        <v>-2.0761999999999998E-3</v>
+      </c>
+      <c r="F79">
+        <f>'Pre-process'!B77+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>19.8959495</v>
+      </c>
+      <c r="G79">
+        <f>'Pre-process'!C77+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-4.3114299999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C80">
+        <v>77</v>
+      </c>
+      <c r="D80" s="1">
+        <v>-1.0491000000000001E-3</v>
+      </c>
+      <c r="E80" s="1">
+        <v>-2.0952000000000002E-3</v>
+      </c>
+      <c r="F80">
+        <f>'Pre-process'!B78+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>19.842635000000001</v>
+      </c>
+      <c r="G80">
+        <f>'Pre-process'!C78+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-6.3142800000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C81">
+        <v>78</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1.1252E-3</v>
+      </c>
+      <c r="E81" s="1">
+        <v>-2.4702000000000001E-3</v>
+      </c>
+      <c r="F81">
+        <f>'Pre-process'!B79+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>22.168780000000002</v>
+      </c>
+      <c r="G81">
+        <f>'Pre-process'!C79+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>5.6294699999999995</v>
+      </c>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C82">
+        <v>79</v>
+      </c>
+      <c r="D82" s="1">
+        <v>7.4463999999999997E-4</v>
+      </c>
+      <c r="E82" s="1">
+        <v>-2.4520000000000002E-3</v>
+      </c>
+      <c r="F82">
+        <f>'Pre-process'!B80+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>22.111695999999998</v>
+      </c>
+      <c r="G82">
+        <f>'Pre-process'!C80+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>3.6322000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C83">
+        <v>80</v>
+      </c>
+      <c r="D83" s="1">
+        <v>3.7038000000000001E-4</v>
+      </c>
+      <c r="E83" s="1">
+        <v>-2.4413E-3</v>
+      </c>
+      <c r="F83">
+        <f>'Pre-process'!B81+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>22.055557</v>
+      </c>
+      <c r="G83">
+        <f>'Pre-process'!C81+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>1.633805</v>
+      </c>
+    </row>
+    <row r="84" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C84">
+        <v>81</v>
+      </c>
+      <c r="D84" s="1">
+        <v>2.1144000000000001E-17</v>
+      </c>
+      <c r="E84" s="1">
+        <v>-2.4375E-3</v>
+      </c>
+      <c r="F84">
+        <f>'Pre-process'!B82+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>22.000000000000004</v>
+      </c>
+      <c r="G84">
+        <f>'Pre-process'!C82+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-0.36562499999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C85">
+        <v>82</v>
+      </c>
+      <c r="D85" s="1">
+        <v>-3.7038000000000001E-4</v>
+      </c>
+      <c r="E85" s="1">
+        <v>-2.4413E-3</v>
+      </c>
+      <c r="F85">
+        <f>'Pre-process'!B83+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>21.944443</v>
+      </c>
+      <c r="G85">
+        <f>'Pre-process'!C83+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-2.3661949999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C86">
+        <v>83</v>
+      </c>
+      <c r="D86" s="1">
+        <v>-7.4463999999999997E-4</v>
+      </c>
+      <c r="E86" s="1">
+        <v>-2.4520000000000002E-3</v>
+      </c>
+      <c r="F86">
+        <f>'Pre-process'!B84+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>21.888304000000002</v>
+      </c>
+      <c r="G86">
+        <f>'Pre-process'!C84+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-4.3677999999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C87">
+        <v>84</v>
+      </c>
+      <c r="D87" s="1">
+        <v>-1.1252E-3</v>
+      </c>
+      <c r="E87" s="1">
+        <v>-2.4702000000000001E-3</v>
+      </c>
+      <c r="F87">
+        <f>'Pre-process'!B85+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>21.831219999999998</v>
+      </c>
+      <c r="G87">
+        <f>'Pre-process'!C85+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-6.3705300000000005</v>
+      </c>
+    </row>
+    <row r="88" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C88">
+        <v>85</v>
+      </c>
+      <c r="D88" s="1">
+        <v>1.1971E-3</v>
+      </c>
+      <c r="E88" s="1">
+        <v>-2.8697000000000002E-3</v>
+      </c>
+      <c r="F88">
+        <f>'Pre-process'!B86+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>24.179565</v>
+      </c>
+      <c r="G88">
+        <f>'Pre-process'!C86+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>5.5695449999999997</v>
+      </c>
+    </row>
+    <row r="89" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C89">
+        <v>86</v>
+      </c>
+      <c r="D89" s="1">
+        <v>7.9118000000000005E-4</v>
+      </c>
+      <c r="E89" s="1">
+        <v>-2.8532000000000002E-3</v>
+      </c>
+      <c r="F89">
+        <f>'Pre-process'!B87+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>24.118677000000002</v>
+      </c>
+      <c r="G89">
+        <f>'Pre-process'!C87+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>3.5720200000000002</v>
+      </c>
+    </row>
+    <row r="90" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C90">
+        <v>87</v>
+      </c>
+      <c r="D90" s="1">
+        <v>3.9394000000000001E-4</v>
+      </c>
+      <c r="E90" s="1">
+        <v>-2.8435000000000001E-3</v>
+      </c>
+      <c r="F90">
+        <f>'Pre-process'!B88+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>24.059090999999999</v>
+      </c>
+      <c r="G90">
+        <f>'Pre-process'!C88+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>1.573475</v>
+      </c>
+    </row>
+    <row r="91" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C91">
+        <v>88</v>
+      </c>
+      <c r="D91" s="1">
+        <v>1.9836000000000001E-17</v>
+      </c>
+      <c r="E91" s="1">
+        <v>-2.8402000000000002E-3</v>
+      </c>
+      <c r="F91">
+        <f>'Pre-process'!B89+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>24.000000000000004</v>
+      </c>
+      <c r="G91">
+        <f>'Pre-process'!C89+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-0.42603000000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C92">
+        <v>89</v>
+      </c>
+      <c r="D92" s="1">
+        <v>-3.9394000000000001E-4</v>
+      </c>
+      <c r="E92" s="1">
+        <v>-2.8435000000000001E-3</v>
+      </c>
+      <c r="F92">
+        <f>'Pre-process'!B90+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>23.940909000000001</v>
+      </c>
+      <c r="G92">
+        <f>'Pre-process'!C90+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-2.4265249999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C93">
+        <v>90</v>
+      </c>
+      <c r="D93" s="1">
+        <v>-7.9118000000000005E-4</v>
+      </c>
+      <c r="E93" s="1">
+        <v>-2.8532000000000002E-3</v>
+      </c>
+      <c r="F93">
+        <f>'Pre-process'!B91+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>23.881322999999998</v>
+      </c>
+      <c r="G93">
+        <f>'Pre-process'!C91+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-4.4279799999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C94">
+        <v>91</v>
+      </c>
+      <c r="D94" s="1">
+        <v>-1.1971E-3</v>
+      </c>
+      <c r="E94" s="1">
+        <v>-2.8697000000000002E-3</v>
+      </c>
+      <c r="F94">
+        <f>'Pre-process'!B92+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>23.820435</v>
+      </c>
+      <c r="G94">
+        <f>'Pre-process'!C92+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-6.4304550000000003</v>
+      </c>
+    </row>
+    <row r="95" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C95">
+        <v>92</v>
+      </c>
+      <c r="D95" s="1">
+        <v>1.2629E-3</v>
+      </c>
+      <c r="E95" s="1">
+        <v>-3.2935E-3</v>
+      </c>
+      <c r="F95">
+        <f>'Pre-process'!B93+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>26.189435</v>
+      </c>
+      <c r="G95">
+        <f>'Pre-process'!C93+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>5.5059750000000003</v>
+      </c>
+    </row>
+    <row r="96" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C96">
+        <v>93</v>
+      </c>
+      <c r="D96" s="1">
+        <v>8.3367000000000001E-4</v>
+      </c>
+      <c r="E96" s="1">
+        <v>-3.2780999999999999E-3</v>
+      </c>
+      <c r="F96">
+        <f>'Pre-process'!B94+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>26.1250505</v>
+      </c>
+      <c r="G96">
+        <f>'Pre-process'!C94+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>3.5082849999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C97">
+        <v>94</v>
+      </c>
+      <c r="D97" s="1">
+        <v>4.1543999999999999E-4</v>
+      </c>
+      <c r="E97" s="1">
+        <v>-3.2691E-3</v>
+      </c>
+      <c r="F97">
+        <f>'Pre-process'!B95+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>26.062315999999999</v>
+      </c>
+      <c r="G97">
+        <f>'Pre-process'!C95+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>1.5096350000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C98">
+        <v>95</v>
+      </c>
+      <c r="D98" s="1">
+        <v>2.0156E-17</v>
+      </c>
+      <c r="E98" s="1">
+        <v>-3.2659999999999998E-3</v>
+      </c>
+      <c r="F98">
+        <f>'Pre-process'!B96+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>26.000000000000004</v>
+      </c>
+      <c r="G98">
+        <f>'Pre-process'!C96+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-0.48989999999999995</v>
+      </c>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C99">
+        <v>96</v>
+      </c>
+      <c r="D99" s="1">
+        <v>-4.1543999999999999E-4</v>
+      </c>
+      <c r="E99" s="1">
+        <v>-3.2691E-3</v>
+      </c>
+      <c r="F99">
+        <f>'Pre-process'!B97+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>25.937684000000001</v>
+      </c>
+      <c r="G99">
+        <f>'Pre-process'!C97+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-2.4903650000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C100">
+        <v>97</v>
+      </c>
+      <c r="D100" s="1">
+        <v>-8.3367000000000001E-4</v>
+      </c>
+      <c r="E100" s="1">
+        <v>-3.2780999999999999E-3</v>
+      </c>
+      <c r="F100">
+        <f>'Pre-process'!B98+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>25.8749495</v>
+      </c>
+      <c r="G100">
+        <f>'Pre-process'!C98+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-4.4917150000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C101">
+        <v>98</v>
+      </c>
+      <c r="D101" s="1">
+        <v>-1.2629E-3</v>
+      </c>
+      <c r="E101" s="1">
+        <v>-3.2935E-3</v>
+      </c>
+      <c r="F101">
+        <f>'Pre-process'!B99+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>25.810565</v>
+      </c>
+      <c r="G101">
+        <f>'Pre-process'!C99+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-6.4940249999999997</v>
+      </c>
+    </row>
+    <row r="102" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C102">
+        <v>99</v>
+      </c>
+      <c r="D102" s="1">
+        <v>1.3205999999999999E-3</v>
+      </c>
+      <c r="E102" s="1">
+        <v>-3.7374000000000001E-3</v>
+      </c>
+      <c r="F102">
+        <f>'Pre-process'!B100+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>28.198090000000001</v>
+      </c>
+      <c r="G102">
+        <f>'Pre-process'!C100+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>5.4393899999999995</v>
+      </c>
+    </row>
+    <row r="103" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C103">
+        <v>100</v>
+      </c>
+      <c r="D103" s="1">
+        <v>8.7253999999999999E-4</v>
+      </c>
+      <c r="E103" s="1">
+        <v>-3.7239E-3</v>
+      </c>
+      <c r="F103">
+        <f>'Pre-process'!B101+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>28.130880999999999</v>
+      </c>
+      <c r="G103">
+        <f>'Pre-process'!C101+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>3.4414150000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C104">
+        <v>101</v>
+      </c>
+      <c r="D104" s="1">
+        <v>4.3479E-4</v>
+      </c>
+      <c r="E104" s="1">
+        <v>-3.7152999999999999E-3</v>
+      </c>
+      <c r="F104">
+        <f>'Pre-process'!B102+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>28.0652185</v>
+      </c>
+      <c r="G104">
+        <f>'Pre-process'!C102+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>1.4427050000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C105">
+        <v>102</v>
+      </c>
+      <c r="D105" s="1">
+        <v>1.6370000000000001E-17</v>
+      </c>
+      <c r="E105" s="1">
+        <v>-3.7128E-3</v>
+      </c>
+      <c r="F105">
+        <f>'Pre-process'!B103+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>28.000000000000004</v>
+      </c>
+      <c r="G105">
+        <f>'Pre-process'!C103+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-0.55691999999999997</v>
+      </c>
+    </row>
+    <row r="106" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C106">
+        <v>103</v>
+      </c>
+      <c r="D106" s="1">
+        <v>-4.3479E-4</v>
+      </c>
+      <c r="E106" s="1">
+        <v>-3.7152999999999999E-3</v>
+      </c>
+      <c r="F106">
+        <f>'Pre-process'!B104+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>27.9347815</v>
+      </c>
+      <c r="G106">
+        <f>'Pre-process'!C104+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-2.5572949999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C107">
+        <v>104</v>
+      </c>
+      <c r="D107" s="1">
+        <v>-8.7253999999999999E-4</v>
+      </c>
+      <c r="E107" s="1">
+        <v>-3.7239E-3</v>
+      </c>
+      <c r="F107">
+        <f>'Pre-process'!B105+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>27.869119000000001</v>
+      </c>
+      <c r="G107">
+        <f>'Pre-process'!C105+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-4.5585849999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C108">
+        <v>105</v>
+      </c>
+      <c r="D108" s="1">
+        <v>-1.3205999999999999E-3</v>
+      </c>
+      <c r="E108" s="1">
+        <v>-3.7374000000000001E-3</v>
+      </c>
+      <c r="F108">
+        <f>'Pre-process'!B106+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>27.801909999999999</v>
+      </c>
+      <c r="G108">
+        <f>'Pre-process'!C106+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-6.5606100000000005</v>
+      </c>
+    </row>
+    <row r="109" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C109">
+        <v>106</v>
+      </c>
+      <c r="D109" s="1">
+        <v>1.3695999999999999E-3</v>
+      </c>
+      <c r="E109" s="1">
+        <v>-4.1977000000000004E-3</v>
+      </c>
+      <c r="F109">
+        <f>'Pre-process'!B107+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>30.205439999999999</v>
+      </c>
+      <c r="G109">
+        <f>'Pre-process'!C107+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>5.3703450000000004</v>
+      </c>
+    </row>
+    <row r="110" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C110">
+        <v>107</v>
+      </c>
+      <c r="D110" s="1">
+        <v>9.0684000000000001E-4</v>
+      </c>
+      <c r="E110" s="1">
+        <v>-4.1853000000000003E-3</v>
+      </c>
+      <c r="F110">
+        <f>'Pre-process'!B108+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>30.136026000000001</v>
+      </c>
+      <c r="G110">
+        <f>'Pre-process'!C108+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>3.3722050000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C111">
+        <v>108</v>
+      </c>
+      <c r="D111" s="1">
+        <v>4.5152000000000001E-4</v>
+      </c>
+      <c r="E111" s="1">
+        <v>-4.1776000000000001E-3</v>
+      </c>
+      <c r="F111">
+        <f>'Pre-process'!B109+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>30.067727999999999</v>
+      </c>
+      <c r="G111">
+        <f>'Pre-process'!C109+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>1.3733599999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C112">
+        <v>109</v>
+      </c>
+      <c r="D112" s="1">
+        <v>1.9694999999999999E-17</v>
+      </c>
+      <c r="E112" s="1">
+        <v>-4.1751000000000002E-3</v>
+      </c>
+      <c r="F112">
+        <f>'Pre-process'!B110+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>30.000000000000004</v>
+      </c>
+      <c r="G112">
+        <f>'Pre-process'!C110+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-0.62626500000000007</v>
+      </c>
+    </row>
+    <row r="113" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C113">
+        <v>110</v>
+      </c>
+      <c r="D113" s="1">
+        <v>-4.5152000000000001E-4</v>
+      </c>
+      <c r="E113" s="1">
+        <v>-4.1776000000000001E-3</v>
+      </c>
+      <c r="F113">
+        <f>'Pre-process'!B111+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>29.932272000000001</v>
+      </c>
+      <c r="G113">
+        <f>'Pre-process'!C111+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-2.6266400000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C114">
+        <v>111</v>
+      </c>
+      <c r="D114" s="1">
+        <v>-9.0684000000000001E-4</v>
+      </c>
+      <c r="E114" s="1">
+        <v>-4.1853000000000003E-3</v>
+      </c>
+      <c r="F114">
+        <f>'Pre-process'!B112+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>29.863973999999999</v>
+      </c>
+      <c r="G114">
+        <f>'Pre-process'!C112+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-4.6277949999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C115">
+        <v>112</v>
+      </c>
+      <c r="D115" s="1">
+        <v>-1.3695999999999999E-3</v>
+      </c>
+      <c r="E115" s="1">
+        <v>-4.1977000000000004E-3</v>
+      </c>
+      <c r="F115">
+        <f>'Pre-process'!B113+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>29.794560000000001</v>
+      </c>
+      <c r="G115">
+        <f>'Pre-process'!C113+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-6.6296549999999996</v>
+      </c>
+    </row>
+    <row r="116" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C116">
+        <v>113</v>
+      </c>
+      <c r="D116" s="1">
+        <v>1.4197000000000001E-3</v>
+      </c>
+      <c r="E116" s="1">
+        <v>-4.6753000000000003E-3</v>
+      </c>
+      <c r="F116">
+        <f>'Pre-process'!B114+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>32.212955000000001</v>
+      </c>
+      <c r="G116">
+        <f>'Pre-process'!C114+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>5.298705</v>
+      </c>
+    </row>
+    <row r="117" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C117">
+        <v>114</v>
+      </c>
+      <c r="D117" s="1">
+        <v>9.3948999999999996E-4</v>
+      </c>
+      <c r="E117" s="1">
+        <v>-4.6642000000000003E-3</v>
+      </c>
+      <c r="F117">
+        <f>'Pre-process'!B115+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>32.1409235</v>
+      </c>
+      <c r="G117">
+        <f>'Pre-process'!C115+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>3.30037</v>
+      </c>
+    </row>
+    <row r="118" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C118">
+        <v>115</v>
+      </c>
+      <c r="D118" s="1">
+        <v>4.6812999999999998E-4</v>
+      </c>
+      <c r="E118" s="1">
+        <v>-4.6576999999999999E-3</v>
+      </c>
+      <c r="F118">
+        <f>'Pre-process'!B116+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>32.0702195</v>
+      </c>
+      <c r="G118">
+        <f>'Pre-process'!C116+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>1.301345</v>
+      </c>
+    </row>
+    <row r="119" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C119">
+        <v>116</v>
+      </c>
+      <c r="D119" s="1">
+        <v>1.5487000000000001E-17</v>
+      </c>
+      <c r="E119" s="1">
+        <v>-4.6553999999999996E-3</v>
+      </c>
+      <c r="F119">
+        <f>'Pre-process'!B117+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>32</v>
+      </c>
+      <c r="G119">
+        <f>'Pre-process'!C117+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-0.69830999999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C120">
+        <v>117</v>
+      </c>
+      <c r="D120" s="1">
+        <v>-4.6812999999999998E-4</v>
+      </c>
+      <c r="E120" s="1">
+        <v>-4.6576999999999999E-3</v>
+      </c>
+      <c r="F120">
+        <f>'Pre-process'!B118+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>31.9297805</v>
+      </c>
+      <c r="G120">
+        <f>'Pre-process'!C118+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-2.698655</v>
+      </c>
+    </row>
+    <row r="121" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C121">
+        <v>118</v>
+      </c>
+      <c r="D121" s="1">
+        <v>-9.3948999999999996E-4</v>
+      </c>
+      <c r="E121" s="1">
+        <v>-4.6642000000000003E-3</v>
+      </c>
+      <c r="F121">
+        <f>'Pre-process'!B119+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>31.8590765</v>
+      </c>
+      <c r="G121">
+        <f>'Pre-process'!C119+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-4.69963</v>
+      </c>
+    </row>
+    <row r="122" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C122">
+        <v>119</v>
+      </c>
+      <c r="D122" s="1">
+        <v>-1.4197000000000001E-3</v>
+      </c>
+      <c r="E122" s="1">
+        <v>-4.6753000000000003E-3</v>
+      </c>
+      <c r="F122">
+        <f>'Pre-process'!B120+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>31.787044999999999</v>
+      </c>
+      <c r="G122">
+        <f>'Pre-process'!C120+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-6.701295</v>
+      </c>
+    </row>
+    <row r="123" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C123">
+        <v>120</v>
+      </c>
+      <c r="D123" s="1">
+        <v>1.4613E-3</v>
+      </c>
+      <c r="E123" s="1">
+        <v>-5.1682000000000004E-3</v>
+      </c>
+      <c r="F123">
+        <f>'Pre-process'!B121+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>34.219194999999999</v>
+      </c>
+      <c r="G123">
+        <f>'Pre-process'!C121+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>5.2247699999999995</v>
+      </c>
+    </row>
+    <row r="124" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C124">
+        <v>121</v>
+      </c>
+      <c r="D124" s="1">
+        <v>9.6717000000000005E-4</v>
+      </c>
+      <c r="E124" s="1">
+        <v>-5.1586999999999996E-3</v>
+      </c>
+      <c r="F124">
+        <f>'Pre-process'!B122+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>34.145075499999997</v>
+      </c>
+      <c r="G124">
+        <f>'Pre-process'!C122+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>3.2261950000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C125">
+        <v>122</v>
+      </c>
+      <c r="D125" s="1">
+        <v>4.8191E-4</v>
+      </c>
+      <c r="E125" s="1">
+        <v>-5.1529999999999996E-3</v>
+      </c>
+      <c r="F125">
+        <f>'Pre-process'!B123+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>34.072286499999997</v>
+      </c>
+      <c r="G125">
+        <f>'Pre-process'!C123+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>1.2270500000000002</v>
+      </c>
+    </row>
+    <row r="126" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C126">
+        <v>123</v>
+      </c>
+      <c r="D126" s="1">
+        <v>1.6614000000000001E-17</v>
+      </c>
+      <c r="E126" s="1">
+        <v>-5.1511999999999999E-3</v>
+      </c>
+      <c r="F126">
+        <f>'Pre-process'!B124+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>34</v>
+      </c>
+      <c r="G126">
+        <f>'Pre-process'!C124+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-0.77268000000000003</v>
+      </c>
+    </row>
+    <row r="127" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C127">
+        <v>124</v>
+      </c>
+      <c r="D127" s="1">
+        <v>-4.8191E-4</v>
+      </c>
+      <c r="E127" s="1">
+        <v>-5.1529999999999996E-3</v>
+      </c>
+      <c r="F127">
+        <f>'Pre-process'!B125+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>33.927713500000003</v>
+      </c>
+      <c r="G127">
+        <f>'Pre-process'!C125+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-2.7729499999999998</v>
+      </c>
+    </row>
+    <row r="128" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C128">
+        <v>125</v>
+      </c>
+      <c r="D128" s="1">
+        <v>-9.6717000000000005E-4</v>
+      </c>
+      <c r="E128" s="1">
+        <v>-5.1586999999999996E-3</v>
+      </c>
+      <c r="F128">
+        <f>'Pre-process'!B126+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>33.854924500000003</v>
+      </c>
+      <c r="G128">
+        <f>'Pre-process'!C126+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-4.7738050000000003</v>
+      </c>
+    </row>
+    <row r="129" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C129">
+        <v>126</v>
+      </c>
+      <c r="D129" s="1">
+        <v>-1.4613E-3</v>
+      </c>
+      <c r="E129" s="1">
+        <v>-5.1682000000000004E-3</v>
+      </c>
+      <c r="F129">
+        <f>'Pre-process'!B127+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>33.780805000000001</v>
+      </c>
+      <c r="G129">
+        <f>'Pre-process'!C127+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-6.7752300000000005</v>
+      </c>
+    </row>
+    <row r="130" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C130">
+        <v>127</v>
+      </c>
+      <c r="D130" s="1">
+        <v>1.4973E-3</v>
+      </c>
+      <c r="E130" s="1">
+        <v>-5.6743999999999996E-3</v>
+      </c>
+      <c r="F130">
+        <f>'Pre-process'!B128+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>36.224595000000001</v>
+      </c>
+      <c r="G130">
+        <f>'Pre-process'!C128+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>5.1488399999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C131">
+        <v>128</v>
+      </c>
+      <c r="D131" s="1">
+        <v>9.9073E-4</v>
+      </c>
+      <c r="E131" s="1">
+        <v>-5.6661999999999997E-3</v>
+      </c>
+      <c r="F131">
+        <f>'Pre-process'!B129+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>36.148609499999999</v>
+      </c>
+      <c r="G131">
+        <f>'Pre-process'!C129+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>3.1500699999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C132">
+        <v>129</v>
+      </c>
+      <c r="D132" s="1">
+        <v>4.9377999999999998E-4</v>
+      </c>
+      <c r="E132" s="1">
+        <v>-5.6613000000000002E-3</v>
+      </c>
+      <c r="F132">
+        <f>'Pre-process'!B130+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>36.074066999999999</v>
+      </c>
+      <c r="G132">
+        <f>'Pre-process'!C130+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>1.1508050000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C133">
+        <v>130</v>
+      </c>
+      <c r="D133" s="1">
+        <v>1.6577E-17</v>
+      </c>
+      <c r="E133" s="1">
+        <v>-5.6597000000000001E-3</v>
+      </c>
+      <c r="F133">
+        <f>'Pre-process'!B131+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>36</v>
+      </c>
+      <c r="G133">
+        <f>'Pre-process'!C131+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-0.84895500000000002</v>
+      </c>
+    </row>
+    <row r="134" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C134">
+        <v>131</v>
+      </c>
+      <c r="D134" s="1">
+        <v>-4.9377999999999998E-4</v>
+      </c>
+      <c r="E134" s="1">
+        <v>-5.6613000000000002E-3</v>
+      </c>
+      <c r="F134">
+        <f>'Pre-process'!B132+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>35.925933000000001</v>
+      </c>
+      <c r="G134">
+        <f>'Pre-process'!C132+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-2.8491949999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C135">
+        <v>132</v>
+      </c>
+      <c r="D135" s="1">
+        <v>-9.9073E-4</v>
+      </c>
+      <c r="E135" s="1">
+        <v>-5.6661999999999997E-3</v>
+      </c>
+      <c r="F135">
+        <f>'Pre-process'!B133+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>35.851390500000001</v>
+      </c>
+      <c r="G135">
+        <f>'Pre-process'!C133+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-4.8499299999999996</v>
+      </c>
+    </row>
+    <row r="136" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C136">
+        <v>133</v>
+      </c>
+      <c r="D136" s="1">
+        <v>-1.4973E-3</v>
+      </c>
+      <c r="E136" s="1">
+        <v>-5.6743999999999996E-3</v>
+      </c>
+      <c r="F136">
+        <f>'Pre-process'!B134+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>35.775404999999999</v>
+      </c>
+      <c r="G136">
+        <f>'Pre-process'!C134+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-6.8511600000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C137">
+        <v>134</v>
+      </c>
+      <c r="D137" s="1">
+        <v>1.5269999999999999E-3</v>
+      </c>
+      <c r="E137" s="1">
+        <v>-6.1912E-3</v>
+      </c>
+      <c r="F137">
+        <f>'Pre-process'!B135+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>38.229050000000001</v>
+      </c>
+      <c r="G137">
+        <f>'Pre-process'!C135+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>5.0713200000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C138">
+        <v>135</v>
+      </c>
+      <c r="D138" s="1">
+        <v>1.0108000000000001E-3</v>
+      </c>
+      <c r="E138" s="1">
+        <v>-6.1843999999999996E-3</v>
+      </c>
+      <c r="F138">
+        <f>'Pre-process'!B136+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>38.151620000000001</v>
+      </c>
+      <c r="G138">
+        <f>'Pre-process'!C136+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>3.0723400000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C139">
+        <v>136</v>
+      </c>
+      <c r="D139" s="1">
+        <v>5.0370999999999999E-4</v>
+      </c>
+      <c r="E139" s="1">
+        <v>-6.1801E-3</v>
+      </c>
+      <c r="F139">
+        <f>'Pre-process'!B137+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>38.075556499999998</v>
+      </c>
+      <c r="G139">
+        <f>'Pre-process'!C137+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>1.0729850000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C140">
+        <v>137</v>
+      </c>
+      <c r="D140" s="1">
+        <v>2.1655999999999999E-17</v>
+      </c>
+      <c r="E140" s="1">
+        <v>-6.1787999999999999E-3</v>
+      </c>
+      <c r="F140">
+        <f>'Pre-process'!B138+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>38</v>
+      </c>
+      <c r="G140">
+        <f>'Pre-process'!C138+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-0.92681999999999998</v>
+      </c>
+    </row>
+    <row r="141" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C141">
+        <v>138</v>
+      </c>
+      <c r="D141" s="1">
+        <v>-5.0370999999999999E-4</v>
+      </c>
+      <c r="E141" s="1">
+        <v>-6.1801E-3</v>
+      </c>
+      <c r="F141">
+        <f>'Pre-process'!B139+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>37.924443500000002</v>
+      </c>
+      <c r="G141">
+        <f>'Pre-process'!C139+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-2.9270149999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C142">
+        <v>139</v>
+      </c>
+      <c r="D142" s="1">
+        <v>-1.0108000000000001E-3</v>
+      </c>
+      <c r="E142" s="1">
+        <v>-6.1843999999999996E-3</v>
+      </c>
+      <c r="F142">
+        <f>'Pre-process'!B140+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>37.848379999999999</v>
+      </c>
+      <c r="G142">
+        <f>'Pre-process'!C140+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-4.9276599999999995</v>
+      </c>
+    </row>
+    <row r="143" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C143">
+        <v>140</v>
+      </c>
+      <c r="D143" s="1">
+        <v>-1.5269999999999999E-3</v>
+      </c>
+      <c r="E143" s="1">
+        <v>-6.1912E-3</v>
+      </c>
+      <c r="F143">
+        <f>'Pre-process'!B141+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>37.770949999999999</v>
+      </c>
+      <c r="G143">
+        <f>'Pre-process'!C141+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-6.9286799999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C144">
+        <v>141</v>
+      </c>
+      <c r="D144" s="1">
+        <v>1.552E-3</v>
+      </c>
+      <c r="E144" s="1">
+        <v>-6.7172999999999998E-3</v>
+      </c>
+      <c r="F144">
+        <f>'Pre-process'!B142+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>40.232799999999997</v>
+      </c>
+      <c r="G144">
+        <f>'Pre-process'!C142+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>4.9924049999999998</v>
+      </c>
+    </row>
+    <row r="145" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C145">
+        <v>142</v>
+      </c>
+      <c r="D145" s="1">
+        <v>1.0277000000000001E-3</v>
+      </c>
+      <c r="E145" s="1">
+        <v>-6.7115999999999999E-3</v>
+      </c>
+      <c r="F145">
+        <f>'Pre-process'!B143+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>40.154155000000003</v>
+      </c>
+      <c r="G145">
+        <f>'Pre-process'!C143+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>2.9932600000000003</v>
+      </c>
+    </row>
+    <row r="146" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C146">
+        <v>143</v>
+      </c>
+      <c r="D146" s="1">
+        <v>5.1210999999999997E-4</v>
+      </c>
+      <c r="E146" s="1">
+        <v>-6.7082000000000001E-3</v>
+      </c>
+      <c r="F146">
+        <f>'Pre-process'!B144+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>40.0768165</v>
+      </c>
+      <c r="G146">
+        <f>'Pre-process'!C144+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>0.99377000000000004</v>
+      </c>
+    </row>
+    <row r="147" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C147">
+        <v>144</v>
+      </c>
+      <c r="D147" s="1">
+        <v>2.5018E-17</v>
+      </c>
+      <c r="E147" s="1">
+        <v>-6.7070999999999997E-3</v>
+      </c>
+      <c r="F147">
+        <f>'Pre-process'!B145+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>40.000000000000007</v>
+      </c>
+      <c r="G147">
+        <f>'Pre-process'!C145+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-1.006065</v>
+      </c>
+    </row>
+    <row r="148" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C148">
+        <v>145</v>
+      </c>
+      <c r="D148" s="1">
+        <v>-5.1210999999999997E-4</v>
+      </c>
+      <c r="E148" s="1">
+        <v>-6.7082000000000001E-3</v>
+      </c>
+      <c r="F148">
+        <f>'Pre-process'!B146+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>39.9231835</v>
+      </c>
+      <c r="G148">
+        <f>'Pre-process'!C146+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-3.00623</v>
+      </c>
+    </row>
+    <row r="149" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C149">
+        <v>146</v>
+      </c>
+      <c r="D149" s="1">
+        <v>-1.0277000000000001E-3</v>
+      </c>
+      <c r="E149" s="1">
+        <v>-6.7115999999999999E-3</v>
+      </c>
+      <c r="F149">
+        <f>'Pre-process'!B147+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>39.845844999999997</v>
+      </c>
+      <c r="G149">
+        <f>'Pre-process'!C147+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-5.0067399999999997</v>
+      </c>
+    </row>
+    <row r="150" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C150">
+        <v>147</v>
+      </c>
+      <c r="D150" s="1">
+        <v>-1.552E-3</v>
+      </c>
+      <c r="E150" s="1">
+        <v>-6.7172999999999998E-3</v>
+      </c>
+      <c r="F150">
+        <f>'Pre-process'!B148+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>39.767200000000003</v>
+      </c>
+      <c r="G150">
+        <f>'Pre-process'!C148+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-7.0075950000000002</v>
+      </c>
+    </row>
+    <row r="151" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C151">
+        <v>148</v>
+      </c>
+      <c r="D151" s="1">
+        <v>1.5717000000000001E-3</v>
+      </c>
+      <c r="E151" s="1">
+        <v>-7.2516000000000004E-3</v>
+      </c>
+      <c r="F151">
+        <f>'Pre-process'!B149+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>42.235754999999997</v>
+      </c>
+      <c r="G151">
+        <f>'Pre-process'!C149+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>4.9122599999999998</v>
+      </c>
+    </row>
+    <row r="152" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C152">
+        <v>149</v>
+      </c>
+      <c r="D152" s="1">
+        <v>1.0405E-3</v>
+      </c>
+      <c r="E152" s="1">
+        <v>-7.2474999999999996E-3</v>
+      </c>
+      <c r="F152">
+        <f>'Pre-process'!B150+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>42.156075000000001</v>
+      </c>
+      <c r="G152">
+        <f>'Pre-process'!C150+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>2.9128750000000001</v>
+      </c>
+    </row>
+    <row r="153" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C153">
+        <v>150</v>
+      </c>
+      <c r="D153" s="1">
+        <v>5.1864999999999995E-4</v>
+      </c>
+      <c r="E153" s="1">
+        <v>-7.2451E-3</v>
+      </c>
+      <c r="F153">
+        <f>'Pre-process'!B151+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>42.077797500000003</v>
+      </c>
+      <c r="G153">
+        <f>'Pre-process'!C151+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>0.91323500000000002</v>
+      </c>
+    </row>
+    <row r="154" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C154">
+        <v>151</v>
+      </c>
+      <c r="D154" s="1">
+        <v>3.3914E-17</v>
+      </c>
+      <c r="E154" s="1">
+        <v>-7.2443000000000004E-3</v>
+      </c>
+      <c r="F154">
+        <f>'Pre-process'!B152+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>42.000000000000007</v>
+      </c>
+      <c r="G154">
+        <f>'Pre-process'!C152+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-1.0866450000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C155">
+        <v>152</v>
+      </c>
+      <c r="D155" s="1">
+        <v>-5.1864999999999995E-4</v>
+      </c>
+      <c r="E155" s="1">
+        <v>-7.2451E-3</v>
+      </c>
+      <c r="F155">
+        <f>'Pre-process'!B153+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>41.922202499999997</v>
+      </c>
+      <c r="G155">
+        <f>'Pre-process'!C153+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-3.0867649999999998</v>
+      </c>
+    </row>
+    <row r="156" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C156">
+        <v>153</v>
+      </c>
+      <c r="D156" s="1">
+        <v>-1.0405E-3</v>
+      </c>
+      <c r="E156" s="1">
+        <v>-7.2474999999999996E-3</v>
+      </c>
+      <c r="F156">
+        <f>'Pre-process'!B154+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>41.843924999999999</v>
+      </c>
+      <c r="G156">
+        <f>'Pre-process'!C154+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-5.0871250000000003</v>
+      </c>
+    </row>
+    <row r="157" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C157">
+        <v>154</v>
+      </c>
+      <c r="D157" s="1">
+        <v>-1.5717000000000001E-3</v>
+      </c>
+      <c r="E157" s="1">
+        <v>-7.2516000000000004E-3</v>
+      </c>
+      <c r="F157">
+        <f>'Pre-process'!B155+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>41.764245000000003</v>
+      </c>
+      <c r="G157">
+        <f>'Pre-process'!C155+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-7.0877400000000002</v>
+      </c>
+    </row>
+    <row r="158" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C158">
+        <v>155</v>
+      </c>
+      <c r="D158" s="1">
+        <v>1.5839000000000001E-3</v>
+      </c>
+      <c r="E158" s="1">
+        <v>-7.7898999999999998E-3</v>
+      </c>
+      <c r="F158">
+        <f>'Pre-process'!B156+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>44.237585000000003</v>
+      </c>
+      <c r="G158">
+        <f>'Pre-process'!C156+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>4.8315149999999996</v>
+      </c>
+    </row>
+    <row r="159" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C159">
+        <v>156</v>
+      </c>
+      <c r="D159" s="1">
+        <v>1.0491999999999999E-3</v>
+      </c>
+      <c r="E159" s="1">
+        <v>-7.7870999999999999E-3</v>
+      </c>
+      <c r="F159">
+        <f>'Pre-process'!B157+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>44.157380000000003</v>
+      </c>
+      <c r="G159">
+        <f>'Pre-process'!C157+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>2.8319350000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C160">
+        <v>157</v>
+      </c>
+      <c r="D160" s="1">
+        <v>5.2287000000000004E-4</v>
+      </c>
+      <c r="E160" s="1">
+        <v>-7.7850999999999997E-3</v>
+      </c>
+      <c r="F160">
+        <f>'Pre-process'!B158+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>44.078430500000003</v>
+      </c>
+      <c r="G160">
+        <f>'Pre-process'!C158+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>0.83223500000000006</v>
+      </c>
+    </row>
+    <row r="161" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C161">
+        <v>158</v>
+      </c>
+      <c r="D161" s="1">
+        <v>3.7973999999999998E-17</v>
+      </c>
+      <c r="E161" s="1">
+        <v>-7.7846E-3</v>
+      </c>
+      <c r="F161">
+        <f>'Pre-process'!B159+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>44.000000000000007</v>
+      </c>
+      <c r="G161">
+        <f>'Pre-process'!C159+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-1.1676899999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C162">
+        <v>159</v>
+      </c>
+      <c r="D162" s="1">
+        <v>-5.2287000000000004E-4</v>
+      </c>
+      <c r="E162" s="1">
+        <v>-7.7850999999999997E-3</v>
+      </c>
+      <c r="F162">
+        <f>'Pre-process'!B160+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>43.921569499999997</v>
+      </c>
+      <c r="G162">
+        <f>'Pre-process'!C160+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-3.1677650000000002</v>
+      </c>
+    </row>
+    <row r="163" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C163">
+        <v>160</v>
+      </c>
+      <c r="D163" s="1">
+        <v>-1.0491999999999999E-3</v>
+      </c>
+      <c r="E163" s="1">
+        <v>-7.7870999999999999E-3</v>
+      </c>
+      <c r="F163">
+        <f>'Pre-process'!B161+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>43.842619999999997</v>
+      </c>
+      <c r="G163">
+        <f>'Pre-process'!C161+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-5.1680650000000004</v>
+      </c>
+    </row>
+    <row r="164" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C164">
+        <v>161</v>
+      </c>
+      <c r="D164" s="1">
+        <v>-1.5839000000000001E-3</v>
+      </c>
+      <c r="E164" s="1">
+        <v>-7.7898999999999998E-3</v>
+      </c>
+      <c r="F164">
+        <f>'Pre-process'!B162+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>43.762414999999997</v>
+      </c>
+      <c r="G164">
+        <f>'Pre-process'!C162+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-7.1684850000000004</v>
+      </c>
+    </row>
+    <row r="165" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C165">
+        <v>162</v>
+      </c>
+      <c r="D165" s="1">
+        <v>1.5929E-3</v>
+      </c>
+      <c r="E165" s="1">
+        <v>-8.3321999999999997E-3</v>
+      </c>
+      <c r="F165">
+        <f>'Pre-process'!B163+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>46.238934999999998</v>
+      </c>
+      <c r="G165">
+        <f>'Pre-process'!C163+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>4.7501699999999998</v>
+      </c>
+    </row>
+    <row r="166" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C166">
+        <v>163</v>
+      </c>
+      <c r="D166" s="1">
+        <v>1.0552999999999999E-3</v>
+      </c>
+      <c r="E166" s="1">
+        <v>-8.3307999999999993E-3</v>
+      </c>
+      <c r="F166">
+        <f>'Pre-process'!B164+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>46.158295000000003</v>
+      </c>
+      <c r="G166">
+        <f>'Pre-process'!C164+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>2.7503799999999998</v>
+      </c>
+    </row>
+    <row r="167" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C167">
+        <v>164</v>
+      </c>
+      <c r="D167" s="1">
+        <v>5.2603000000000003E-4</v>
+      </c>
+      <c r="E167" s="1">
+        <v>-8.3301E-3</v>
+      </c>
+      <c r="F167">
+        <f>'Pre-process'!B165+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>46.0789045</v>
+      </c>
+      <c r="G167">
+        <f>'Pre-process'!C165+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>0.75048500000000007</v>
+      </c>
+    </row>
+    <row r="168" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C168">
+        <v>165</v>
+      </c>
+      <c r="D168" s="1">
+        <v>3.4003E-17</v>
+      </c>
+      <c r="E168" s="1">
+        <v>-8.3298000000000001E-3</v>
+      </c>
+      <c r="F168">
+        <f>'Pre-process'!B166+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>46.000000000000007</v>
+      </c>
+      <c r="G168">
+        <f>'Pre-process'!C166+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-1.2494700000000001</v>
+      </c>
+    </row>
+    <row r="169" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C169">
+        <v>166</v>
+      </c>
+      <c r="D169" s="1">
+        <v>-5.2603000000000003E-4</v>
+      </c>
+      <c r="E169" s="1">
+        <v>-8.3301E-3</v>
+      </c>
+      <c r="F169">
+        <f>'Pre-process'!B167+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>45.9210955</v>
+      </c>
+      <c r="G169">
+        <f>'Pre-process'!C167+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-3.2495149999999997</v>
+      </c>
+    </row>
+    <row r="170" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C170">
+        <v>167</v>
+      </c>
+      <c r="D170" s="1">
+        <v>-1.0552999999999999E-3</v>
+      </c>
+      <c r="E170" s="1">
+        <v>-8.3307999999999993E-3</v>
+      </c>
+      <c r="F170">
+        <f>'Pre-process'!B168+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>45.841704999999997</v>
+      </c>
+      <c r="G170">
+        <f>'Pre-process'!C168+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-5.2496200000000002</v>
+      </c>
+    </row>
+    <row r="171" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C171">
+        <v>168</v>
+      </c>
+      <c r="D171" s="1">
+        <v>-1.5929E-3</v>
+      </c>
+      <c r="E171" s="1">
+        <v>-8.3321999999999997E-3</v>
+      </c>
+      <c r="F171">
+        <f>'Pre-process'!B169+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>45.761065000000002</v>
+      </c>
+      <c r="G171">
+        <f>'Pre-process'!C169+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-7.2498300000000002</v>
+      </c>
+    </row>
+    <row r="172" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C172">
+        <v>169</v>
+      </c>
+      <c r="D172" s="1">
+        <v>1.5958000000000001E-3</v>
+      </c>
+      <c r="E172" s="1">
+        <v>-8.8763000000000002E-3</v>
+      </c>
+      <c r="F172">
+        <f>'Pre-process'!B170+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>48.239370000000001</v>
+      </c>
+      <c r="G172">
+        <f>'Pre-process'!C170+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>4.6685549999999996</v>
+      </c>
+    </row>
+    <row r="173" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C173">
+        <v>170</v>
+      </c>
+      <c r="D173" s="1">
+        <v>1.0572999999999999E-3</v>
+      </c>
+      <c r="E173" s="1">
+        <v>-8.8766999999999995E-3</v>
+      </c>
+      <c r="F173">
+        <f>'Pre-process'!B171+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>48.158594999999998</v>
+      </c>
+      <c r="G173">
+        <f>'Pre-process'!C171+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>2.6684950000000001</v>
+      </c>
+    </row>
+    <row r="174" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C174">
+        <v>171</v>
+      </c>
+      <c r="D174" s="1">
+        <v>5.2704E-4</v>
+      </c>
+      <c r="E174" s="1">
+        <v>-8.8766999999999995E-3</v>
+      </c>
+      <c r="F174">
+        <f>'Pre-process'!B172+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>48.079056000000001</v>
+      </c>
+      <c r="G174">
+        <f>'Pre-process'!C172+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>0.66849500000000006</v>
+      </c>
+    </row>
+    <row r="175" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C175">
+        <v>172</v>
+      </c>
+      <c r="D175" s="1">
+        <v>2.7125E-17</v>
+      </c>
+      <c r="E175" s="1">
+        <v>-8.8772E-3</v>
+      </c>
+      <c r="F175">
+        <f>'Pre-process'!B173+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>48.000000000000007</v>
+      </c>
+      <c r="G175">
+        <f>'Pre-process'!C173+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-1.33158</v>
+      </c>
+    </row>
+    <row r="176" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C176">
+        <v>173</v>
+      </c>
+      <c r="D176" s="1">
+        <v>-5.2704E-4</v>
+      </c>
+      <c r="E176" s="1">
+        <v>-8.8766999999999995E-3</v>
+      </c>
+      <c r="F176">
+        <f>'Pre-process'!B174+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>47.920943999999999</v>
+      </c>
+      <c r="G176">
+        <f>'Pre-process'!C174+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-3.3315049999999999</v>
+      </c>
+    </row>
+    <row r="177" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C177">
+        <v>174</v>
+      </c>
+      <c r="D177" s="1">
+        <v>-1.0572999999999999E-3</v>
+      </c>
+      <c r="E177" s="1">
+        <v>-8.8766999999999995E-3</v>
+      </c>
+      <c r="F177">
+        <f>'Pre-process'!B175+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>47.841405000000002</v>
+      </c>
+      <c r="G177">
+        <f>'Pre-process'!C175+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-5.3315049999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C178">
+        <v>175</v>
+      </c>
+      <c r="D178" s="1">
+        <v>-1.5958000000000001E-3</v>
+      </c>
+      <c r="E178" s="1">
+        <v>-8.8763000000000002E-3</v>
+      </c>
+      <c r="F178">
+        <f>'Pre-process'!B176+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</f>
+        <v>47.760629999999999</v>
+      </c>
+      <c r="G178">
+        <f>'Pre-process'!C176+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</f>
+        <v>-7.3314450000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Pre & Post-processing.xlsx
+++ b/Pre & Post-processing.xlsx
@@ -5,22 +5,24 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\git\MFreeMethods\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ns.kalutckii\Desktop\MFreeMethods\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27960" windowHeight="13860" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="110" windowWidth="27960" windowHeight="13860" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Pre-process" sheetId="1" r:id="rId1"/>
     <sheet name="Post-process" sheetId="2" r:id="rId2"/>
+    <sheet name="MFree Stress" sheetId="4" r:id="rId3"/>
+    <sheet name="Shear Stress" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Столбец1</t>
   </si>
@@ -48,12 +50,79 @@
   <si>
     <t>Scale Factor</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Loading</t>
+  </si>
+  <si>
+    <t>P=</t>
+  </si>
+  <si>
+    <t>I=</t>
+  </si>
+  <si>
+    <t>D=</t>
+  </si>
+  <si>
+    <t>Height of the beam</t>
+  </si>
+  <si>
+    <t>L=</t>
+  </si>
+  <si>
+    <t>Length of beam</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Tau therory</t>
+  </si>
+  <si>
+    <t>Node</t>
+  </si>
+  <si>
+    <t>Sigma_x</t>
+  </si>
+  <si>
+    <t>Sigma_y</t>
+  </si>
+  <si>
+    <t>Tau_xy</t>
+  </si>
+  <si>
+    <t>Node #</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Ошибка</t>
+  </si>
+  <si>
+    <t>Бессеточ.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,15 +131,27 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor theme="6" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor theme="8" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -78,18 +159,287 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -116,7 +466,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1212,6 +1562,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5C84-4BD1-A4E1-2D2E99E06116}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1570,6 +1925,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5C84-4BD1-A4E1-2D2E99E06116}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1643,7 +2003,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1702,32 +2062,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2873,6 +3207,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9F84-4D83-BE6C-CA379AEF7CC7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3984,6 +4323,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9F84-4D83-BE6C-CA379AEF7CC7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4170,6 +4514,367 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Shear Stress'!$B$12:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Shear Stress'!$C$12:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-38.194444444444443</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-69.444444444444443</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-93.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-111.11111111111111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-121.52777777777779</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-121.52777777777779</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-111.11111111111111</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-93.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-69.444444444444443</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-38.194444444444443</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C337-4A31-8249-2171BD64E60B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="425573776"/>
+        <c:axId val="425574104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="425573776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="425574104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="425574104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="425573776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4211,66 +4916,62 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -4279,8 +4980,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4299,6 +5001,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -4307,20 +5017,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -4329,13 +5039,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4347,31 +5057,30 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4387,18 +5096,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4417,13 +5129,14 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4435,14 +5148,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -4456,8 +5169,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4471,6 +5185,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -4482,9 +5202,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4499,13 +5219,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -4517,14 +5238,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -4536,13 +5257,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -4551,13 +5273,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -4565,7 +5288,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -4578,19 +5301,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -4598,14 +5313,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4617,19 +5332,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4645,7 +5353,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4654,8 +5362,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4671,13 +5380,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4686,17 +5396,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4708,6 +5421,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4752,15 +5471,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1228724</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>52386</xdr:rowOff>
+      <xdr:colOff>415924</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>115886</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>685799</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>507999</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4782,13 +5501,350 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>473075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2797175" cy="624979"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="473075" y="498475"/>
+              <a:ext cx="2797175" cy="624979"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1800" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1800" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜏</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥𝑦</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>,</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑦</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑃</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐼</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:d>
+                      <m:dPr>
+                        <m:begChr m:val="["/>
+                        <m:endChr m:val="]"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:sSup>
+                              <m:sSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSupPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝐷</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSup>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>4</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑦</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="473075" y="498475"/>
+              <a:ext cx="2797175" cy="624979"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1800" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜏_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1800" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥𝑦 (𝑥,𝑦)=  𝑃/2𝐼 [𝐷^2/4−𝑦^2 ]  </a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>168275</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:C176" totalsRowShown="0">
   <autoFilter ref="A1:C176"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Столбец1"/>
-    <tableColumn id="2" name="Столбец2"/>
-    <tableColumn id="3" name="Столбец3"/>
+    <tableColumn id="1" name="Node #"/>
+    <tableColumn id="2" name="X"/>
+    <tableColumn id="3" name="Y"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4811,16 +5867,29 @@
   <autoFilter ref="C3:G178"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Node ID"/>
-    <tableColumn id="2" name="Delta X" dataDxfId="3"/>
-    <tableColumn id="3" name="Delta Y" dataDxfId="2"/>
-    <tableColumn id="4" name="Deformed Location X" dataDxfId="1">
+    <tableColumn id="2" name="Delta X" dataDxfId="6"/>
+    <tableColumn id="3" name="Delta Y" dataDxfId="5"/>
+    <tableColumn id="4" name="Deformed Location X" dataDxfId="4">
       <calculatedColumnFormula>'Pre-process'!B2+Таблица3[[#This Row],[Delta X]]*'Post-process'!$L$5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Deformed Location Y" dataDxfId="0">
+    <tableColumn id="5" name="Deformed Location Y" dataDxfId="3">
       <calculatedColumnFormula>'Pre-process'!C2+Таблица3[[#This Row],[Delta Y]]*'Post-process'!$L$5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="C3:F178" totalsRowShown="0">
+  <autoFilter ref="C3:F178"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Node"/>
+    <tableColumn id="2" name="Sigma_x" dataDxfId="2"/>
+    <tableColumn id="3" name="Sigma_y" dataDxfId="1"/>
+    <tableColumn id="4" name="Tau_xy" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -5113,28 +6182,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H176"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="A78" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86:C92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="11.25" customWidth="1"/>
     <col min="6" max="8" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5154,7 +6223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5174,7 +6243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5194,7 +6263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5214,7 +6283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5234,7 +6303,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5254,7 +6323,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5274,7 +6343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5294,7 +6363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5314,7 +6383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5334,7 +6403,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5354,7 +6423,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5374,7 +6443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5394,7 +6463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5414,7 +6483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5434,7 +6503,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5454,7 +6523,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5474,7 +6543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5494,7 +6563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5514,7 +6583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5534,7 +6603,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5554,7 +6623,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5574,7 +6643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5594,7 +6663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5614,7 +6683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5634,7 +6703,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5654,7 +6723,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5674,7 +6743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5694,7 +6763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5714,7 +6783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5734,7 +6803,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5754,7 +6823,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5774,7 +6843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5794,7 +6863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5814,7 +6883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5834,7 +6903,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5854,7 +6923,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5874,7 +6943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5894,7 +6963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5914,7 +6983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5934,7 +7003,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5954,7 +7023,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5974,7 +7043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5994,7 +7063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6014,7 +7083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6034,7 +7103,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6054,7 +7123,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6074,7 +7143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6094,7 +7163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6114,7 +7183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6134,7 +7203,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6154,7 +7223,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6174,7 +7243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6194,7 +7263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6214,7 +7283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6234,7 +7303,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6254,7 +7323,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6265,7 +7334,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6276,7 +7345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6287,7 +7356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6298,7 +7367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6309,7 +7378,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6320,7 +7389,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6331,7 +7400,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6342,7 +7411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6353,7 +7422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6364,7 +7433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6375,7 +7444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6386,7 +7455,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6397,7 +7466,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6408,7 +7477,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6419,7 +7488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6430,7 +7499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6441,7 +7510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6452,7 +7521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6463,7 +7532,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6474,7 +7543,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6485,7 +7554,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6496,7 +7565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6507,7 +7576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6518,7 +7587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6529,7 +7598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6540,7 +7609,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6551,7 +7620,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6562,84 +7631,84 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="8">
         <v>85</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="9">
         <v>24</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="11">
         <v>86</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="12">
         <v>24</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="13">
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="11">
         <v>87</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="12">
         <v>24</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="11">
         <v>88</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="12">
         <v>24</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="11">
         <v>89</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="12">
         <v>24</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="13">
         <v>-2</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="11">
         <v>90</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="12">
         <v>24</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="13">
         <v>-4</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92">
+    <row r="92" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="14">
         <v>91</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="15">
         <v>24</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="16">
         <v>-6</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6650,7 +7719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6661,7 +7730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6672,7 +7741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6683,7 +7752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6694,7 +7763,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6705,7 +7774,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6716,7 +7785,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6727,7 +7796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6738,7 +7807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6749,7 +7818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6760,7 +7829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6771,7 +7840,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6782,7 +7851,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6793,7 +7862,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -6804,7 +7873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -6815,7 +7884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -6826,7 +7895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -6837,7 +7906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -6848,7 +7917,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -6859,7 +7928,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -6870,7 +7939,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -6881,7 +7950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -6892,7 +7961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -6903,7 +7972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -6914,7 +7983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -6925,7 +7994,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6936,7 +8005,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6947,7 +8016,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6958,7 +8027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -6969,7 +8038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -6980,7 +8049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -6991,7 +8060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -7002,7 +8071,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -7013,7 +8082,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -7024,7 +8093,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -7035,7 +8104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -7046,7 +8115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -7057,7 +8126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -7068,7 +8137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -7079,7 +8148,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -7090,7 +8159,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -7101,7 +8170,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -7112,7 +8181,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -7123,7 +8192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -7134,7 +8203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -7145,7 +8214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -7156,7 +8225,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -7167,7 +8236,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7178,7 +8247,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -7189,7 +8258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7200,7 +8269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -7211,7 +8280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7222,7 +8291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -7233,7 +8302,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -7244,7 +8313,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7255,7 +8324,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -7266,7 +8335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -7277,7 +8346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -7288,7 +8357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -7299,7 +8368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -7310,7 +8379,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -7321,7 +8390,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -7332,7 +8401,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -7343,7 +8412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -7354,7 +8423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -7365,7 +8434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -7376,7 +8445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -7387,7 +8456,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -7398,7 +8467,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -7409,7 +8478,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -7420,7 +8489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -7431,7 +8500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -7442,7 +8511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -7453,7 +8522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -7464,7 +8533,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -7475,7 +8544,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -7486,7 +8555,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -7497,7 +8566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -7508,7 +8577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -7519,7 +8588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -7530,7 +8599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -7541,7 +8610,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -7552,7 +8621,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -7577,17 +8646,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:L178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="5" width="11.25" customWidth="1"/>
     <col min="6" max="7" width="21.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>5</v>
       </c>
@@ -7604,7 +8673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>1</v>
       </c>
@@ -7623,7 +8692,7 @@
         <v>5.9909999999999997</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>2</v>
       </c>
@@ -7648,7 +8717,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>3</v>
       </c>
@@ -7667,7 +8736,7 @@
         <v>1.9989999949999999</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>4</v>
       </c>
@@ -7686,7 +8755,7 @@
         <v>3.4742999999999998E-12</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>5</v>
       </c>
@@ -7705,7 +8774,7 @@
         <v>-2.0010000049999999</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>6</v>
       </c>
@@ -7724,7 +8793,7 @@
         <v>-4.0040000500000001</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>7</v>
       </c>
@@ -7743,7 +8812,7 @@
         <v>-6.0090000000000003</v>
       </c>
     </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>8</v>
       </c>
@@ -7762,7 +8831,7 @@
         <v>5.9857945499999996</v>
       </c>
     </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>9</v>
       </c>
@@ -7781,7 +8850,7 @@
         <v>3.9907283499999999</v>
       </c>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>10</v>
       </c>
@@ -7800,7 +8869,7 @@
         <v>1.99356125</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>11</v>
       </c>
@@ -7819,7 +8888,7 @@
         <v>-5.4244499999999999E-3</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>12</v>
       </c>
@@ -7838,7 +8907,7 @@
         <v>-2.00643875</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>13</v>
       </c>
@@ -7857,7 +8926,7 @@
         <v>-4.0092716499999996</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>14</v>
       </c>
@@ -7876,7 +8945,7 @@
         <v>-6.0142054500000004</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>15</v>
       </c>
@@ -7895,7 +8964,7 @@
         <v>5.9740605000000002</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19">
         <v>16</v>
       </c>
@@ -7914,7 +8983,7 @@
         <v>3.9785200000000001</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>17</v>
       </c>
@@ -7933,7 +9002,7 @@
         <v>1.9813324999999999</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>18</v>
       </c>
@@ -7952,7 +9021,7 @@
         <v>-1.7791500000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>19</v>
       </c>
@@ -7971,7 +9040,7 @@
         <v>-2.0186674999999998</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23">
         <v>20</v>
       </c>
@@ -7990,7 +9059,7 @@
         <v>-4.0214800000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24">
         <v>21</v>
       </c>
@@ -8012,7 +9081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25">
         <v>22</v>
       </c>
@@ -8031,7 +9100,7 @@
         <v>5.9567730000000001</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26">
         <v>23</v>
       </c>
@@ -8050,7 +9119,7 @@
         <v>3.9610975000000002</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27">
         <v>24</v>
       </c>
@@ -8069,7 +9138,7 @@
         <v>1.9637525</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28">
         <v>25</v>
       </c>
@@ -8088,7 +9157,7 @@
         <v>-3.5385E-2</v>
       </c>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29">
         <v>26</v>
       </c>
@@ -8107,7 +9176,7 @@
         <v>-2.0362475</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30">
         <v>27</v>
       </c>
@@ -8126,7 +9195,7 @@
         <v>-4.0389024999999998</v>
       </c>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31">
         <v>28</v>
       </c>
@@ -8145,7 +9214,7 @@
         <v>-6.0432269999999999</v>
       </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32">
         <v>29</v>
       </c>
@@ -8164,7 +9233,7 @@
         <v>5.9335604999999996</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C33">
         <v>30</v>
       </c>
@@ -8183,7 +9252,7 @@
         <v>3.9377365000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C34">
         <v>31</v>
       </c>
@@ -8202,7 +9271,7 @@
         <v>1.940183</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C35">
         <v>32</v>
       </c>
@@ -8221,7 +9290,7 @@
         <v>-5.8958999999999998E-2</v>
       </c>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C36">
         <v>33</v>
       </c>
@@ -8240,7 +9309,7 @@
         <v>-2.0598169999999998</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C37">
         <v>34</v>
       </c>
@@ -8259,7 +9328,7 @@
         <v>-4.0622635000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C38">
         <v>35</v>
       </c>
@@ -8278,7 +9347,7 @@
         <v>-6.0664395000000004</v>
       </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C39">
         <v>36</v>
       </c>
@@ -8297,7 +9366,7 @@
         <v>5.9045249999999996</v>
       </c>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C40">
         <v>37</v>
       </c>
@@ -8316,7 +9385,7 @@
         <v>3.9083860000000001</v>
       </c>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C41">
         <v>38</v>
       </c>
@@ -8335,7 +9404,7 @@
         <v>1.9107425</v>
       </c>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C42">
         <v>39</v>
       </c>
@@ -8354,7 +9423,7 @@
         <v>-8.8513500000000009E-2</v>
       </c>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C43">
         <v>40</v>
       </c>
@@ -8373,7 +9442,7 @@
         <v>-2.0892575</v>
       </c>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C44">
         <v>41</v>
       </c>
@@ -8392,7 +9461,7 @@
         <v>-4.0916139999999999</v>
       </c>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C45">
         <v>42</v>
       </c>
@@ -8411,7 +9480,7 @@
         <v>-6.0954750000000004</v>
       </c>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C46">
         <v>43</v>
       </c>
@@ -8430,7 +9499,7 @@
         <v>5.8700939999999999</v>
       </c>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C47">
         <v>44</v>
       </c>
@@ -8449,7 +9518,7 @@
         <v>3.8737629999999998</v>
       </c>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C48">
         <v>45</v>
       </c>
@@ -8468,7 +9537,7 @@
         <v>1.87598</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C49">
         <v>46</v>
       </c>
@@ -8487,7 +9556,7 @@
         <v>-0.1232805</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C50">
         <v>47</v>
       </c>
@@ -8506,7 +9575,7 @@
         <v>-2.1240199999999998</v>
       </c>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C51">
         <v>48</v>
       </c>
@@ -8525,7 +9594,7 @@
         <v>-4.1262369999999997</v>
       </c>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C52">
         <v>49</v>
       </c>
@@ -8544,7 +9613,7 @@
         <v>-6.1299060000000001</v>
       </c>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C53">
         <v>50</v>
       </c>
@@ -8563,7 +9632,7 @@
         <v>5.8309049999999996</v>
       </c>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C54">
         <v>51</v>
       </c>
@@ -8582,7 +9651,7 @@
         <v>3.8343699999999998</v>
       </c>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C55">
         <v>52</v>
       </c>
@@ -8601,7 +9670,7 @@
         <v>1.83653</v>
       </c>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C56">
         <v>53</v>
       </c>
@@ -8620,7 +9689,7 @@
         <v>-0.16281000000000001</v>
       </c>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C57">
         <v>54</v>
       </c>
@@ -8639,7 +9708,7 @@
         <v>-2.1634699999999998</v>
       </c>
     </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C58">
         <v>55</v>
       </c>
@@ -8658,7 +9727,7 @@
         <v>-4.1656300000000002</v>
       </c>
     </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C59">
         <v>56</v>
       </c>
@@ -8677,7 +9746,7 @@
         <v>-6.1690950000000004</v>
       </c>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C60">
         <v>57</v>
       </c>
@@ -8696,7 +9765,7 @@
         <v>5.7869400000000004</v>
       </c>
     </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C61">
         <v>58</v>
       </c>
@@ -8715,7 +9784,7 @@
         <v>3.7903000000000002</v>
       </c>
     </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C62">
         <v>59</v>
       </c>
@@ -8734,7 +9803,7 @@
         <v>1.792295</v>
       </c>
     </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C63">
         <v>60</v>
       </c>
@@ -8753,7 +9822,7 @@
         <v>-0.207015</v>
       </c>
     </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C64">
         <v>61</v>
       </c>
@@ -8772,7 +9841,7 @@
         <v>-2.2077049999999998</v>
       </c>
     </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C65">
         <v>62</v>
       </c>
@@ -8791,7 +9860,7 @@
         <v>-4.2096999999999998</v>
       </c>
     </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C66">
         <v>63</v>
       </c>
@@ -8810,7 +9879,7 @@
         <v>-6.2130599999999996</v>
       </c>
     </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C67">
         <v>64</v>
       </c>
@@ -8829,7 +9898,7 @@
         <v>5.7382200000000001</v>
       </c>
     </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C68">
         <v>65</v>
       </c>
@@ -8848,7 +9917,7 @@
         <v>3.741295</v>
       </c>
     </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C69">
         <v>66</v>
       </c>
@@ -8867,7 +9936,7 @@
         <v>1.743185</v>
       </c>
     </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C70">
         <v>67</v>
       </c>
@@ -8886,7 +9955,7 @@
         <v>-0.25621499999999997</v>
       </c>
     </row>
-    <row r="71" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C71">
         <v>68</v>
       </c>
@@ -8905,7 +9974,7 @@
         <v>-2.256815</v>
       </c>
     </row>
-    <row r="72" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C72">
         <v>69</v>
       </c>
@@ -8924,7 +9993,7 @@
         <v>-4.258705</v>
       </c>
     </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C73">
         <v>70</v>
       </c>
@@ -8943,7 +10012,7 @@
         <v>-6.2617799999999999</v>
       </c>
     </row>
-    <row r="74" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C74">
         <v>71</v>
       </c>
@@ -8962,7 +10031,7 @@
         <v>5.6857199999999999</v>
       </c>
     </row>
-    <row r="75" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C75">
         <v>72</v>
       </c>
@@ -8981,7 +10050,7 @@
         <v>3.6885699999999999</v>
       </c>
     </row>
-    <row r="76" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C76">
         <v>73</v>
       </c>
@@ -9000,7 +10069,7 @@
         <v>1.690415</v>
       </c>
     </row>
-    <row r="77" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C77">
         <v>74</v>
       </c>
@@ -9019,7 +10088,7 @@
         <v>-0.30904500000000001</v>
       </c>
     </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C78">
         <v>75</v>
       </c>
@@ -9038,7 +10107,7 @@
         <v>-2.3095850000000002</v>
       </c>
     </row>
-    <row r="79" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C79">
         <v>76</v>
       </c>
@@ -9057,7 +10126,7 @@
         <v>-4.3114299999999997</v>
       </c>
     </row>
-    <row r="80" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C80">
         <v>77</v>
       </c>
@@ -9076,7 +10145,7 @@
         <v>-6.3142800000000001</v>
       </c>
     </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C81">
         <v>78</v>
       </c>
@@ -9095,7 +10164,7 @@
         <v>5.6294699999999995</v>
       </c>
     </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C82">
         <v>79</v>
       </c>
@@ -9114,7 +10183,7 @@
         <v>3.6322000000000001</v>
       </c>
     </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C83">
         <v>80</v>
       </c>
@@ -9133,7 +10202,7 @@
         <v>1.633805</v>
       </c>
     </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C84">
         <v>81</v>
       </c>
@@ -9152,7 +10221,7 @@
         <v>-0.36562499999999998</v>
       </c>
     </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C85">
         <v>82</v>
       </c>
@@ -9171,7 +10240,7 @@
         <v>-2.3661949999999998</v>
       </c>
     </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C86">
         <v>83</v>
       </c>
@@ -9190,7 +10259,7 @@
         <v>-4.3677999999999999</v>
       </c>
     </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C87">
         <v>84</v>
       </c>
@@ -9209,7 +10278,7 @@
         <v>-6.3705300000000005</v>
       </c>
     </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C88">
         <v>85</v>
       </c>
@@ -9228,7 +10297,7 @@
         <v>5.5695449999999997</v>
       </c>
     </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C89">
         <v>86</v>
       </c>
@@ -9247,7 +10316,7 @@
         <v>3.5720200000000002</v>
       </c>
     </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C90">
         <v>87</v>
       </c>
@@ -9266,7 +10335,7 @@
         <v>1.573475</v>
       </c>
     </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C91">
         <v>88</v>
       </c>
@@ -9285,7 +10354,7 @@
         <v>-0.42603000000000002</v>
       </c>
     </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C92">
         <v>89</v>
       </c>
@@ -9304,7 +10373,7 @@
         <v>-2.4265249999999998</v>
       </c>
     </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C93">
         <v>90</v>
       </c>
@@ -9323,7 +10392,7 @@
         <v>-4.4279799999999998</v>
       </c>
     </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C94">
         <v>91</v>
       </c>
@@ -9342,7 +10411,7 @@
         <v>-6.4304550000000003</v>
       </c>
     </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C95">
         <v>92</v>
       </c>
@@ -9361,7 +10430,7 @@
         <v>5.5059750000000003</v>
       </c>
     </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C96">
         <v>93</v>
       </c>
@@ -9380,7 +10449,7 @@
         <v>3.5082849999999999</v>
       </c>
     </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C97">
         <v>94</v>
       </c>
@@ -9399,7 +10468,7 @@
         <v>1.5096350000000001</v>
       </c>
     </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C98">
         <v>95</v>
       </c>
@@ -9418,7 +10487,7 @@
         <v>-0.48989999999999995</v>
       </c>
     </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C99">
         <v>96</v>
       </c>
@@ -9437,7 +10506,7 @@
         <v>-2.4903650000000002</v>
       </c>
     </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C100">
         <v>97</v>
       </c>
@@ -9456,7 +10525,7 @@
         <v>-4.4917150000000001</v>
       </c>
     </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C101">
         <v>98</v>
       </c>
@@ -9475,7 +10544,7 @@
         <v>-6.4940249999999997</v>
       </c>
     </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C102">
         <v>99</v>
       </c>
@@ -9494,7 +10563,7 @@
         <v>5.4393899999999995</v>
       </c>
     </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C103">
         <v>100</v>
       </c>
@@ -9513,7 +10582,7 @@
         <v>3.4414150000000001</v>
       </c>
     </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C104">
         <v>101</v>
       </c>
@@ -9532,7 +10601,7 @@
         <v>1.4427050000000001</v>
       </c>
     </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C105">
         <v>102</v>
       </c>
@@ -9551,7 +10620,7 @@
         <v>-0.55691999999999997</v>
       </c>
     </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C106">
         <v>103</v>
       </c>
@@ -9570,7 +10639,7 @@
         <v>-2.5572949999999999</v>
       </c>
     </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C107">
         <v>104</v>
       </c>
@@ -9589,7 +10658,7 @@
         <v>-4.5585849999999999</v>
       </c>
     </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C108">
         <v>105</v>
       </c>
@@ -9608,7 +10677,7 @@
         <v>-6.5606100000000005</v>
       </c>
     </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C109">
         <v>106</v>
       </c>
@@ -9627,7 +10696,7 @@
         <v>5.3703450000000004</v>
       </c>
     </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C110">
         <v>107</v>
       </c>
@@ -9646,7 +10715,7 @@
         <v>3.3722050000000001</v>
       </c>
     </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C111">
         <v>108</v>
       </c>
@@ -9665,7 +10734,7 @@
         <v>1.3733599999999999</v>
       </c>
     </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C112">
         <v>109</v>
       </c>
@@ -9684,7 +10753,7 @@
         <v>-0.62626500000000007</v>
       </c>
     </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C113">
         <v>110</v>
       </c>
@@ -9703,7 +10772,7 @@
         <v>-2.6266400000000001</v>
       </c>
     </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C114">
         <v>111</v>
       </c>
@@ -9722,7 +10791,7 @@
         <v>-4.6277949999999999</v>
       </c>
     </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C115">
         <v>112</v>
       </c>
@@ -9741,7 +10810,7 @@
         <v>-6.6296549999999996</v>
       </c>
     </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C116">
         <v>113</v>
       </c>
@@ -9760,7 +10829,7 @@
         <v>5.298705</v>
       </c>
     </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C117">
         <v>114</v>
       </c>
@@ -9779,7 +10848,7 @@
         <v>3.30037</v>
       </c>
     </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C118">
         <v>115</v>
       </c>
@@ -9798,7 +10867,7 @@
         <v>1.301345</v>
       </c>
     </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C119">
         <v>116</v>
       </c>
@@ -9817,7 +10886,7 @@
         <v>-0.69830999999999999</v>
       </c>
     </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C120">
         <v>117</v>
       </c>
@@ -9836,7 +10905,7 @@
         <v>-2.698655</v>
       </c>
     </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C121">
         <v>118</v>
       </c>
@@ -9855,7 +10924,7 @@
         <v>-4.69963</v>
       </c>
     </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C122">
         <v>119</v>
       </c>
@@ -9874,7 +10943,7 @@
         <v>-6.701295</v>
       </c>
     </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C123">
         <v>120</v>
       </c>
@@ -9893,7 +10962,7 @@
         <v>5.2247699999999995</v>
       </c>
     </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C124">
         <v>121</v>
       </c>
@@ -9912,7 +10981,7 @@
         <v>3.2261950000000001</v>
       </c>
     </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C125">
         <v>122</v>
       </c>
@@ -9931,7 +11000,7 @@
         <v>1.2270500000000002</v>
       </c>
     </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C126">
         <v>123</v>
       </c>
@@ -9950,7 +11019,7 @@
         <v>-0.77268000000000003</v>
       </c>
     </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C127">
         <v>124</v>
       </c>
@@ -9969,7 +11038,7 @@
         <v>-2.7729499999999998</v>
       </c>
     </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C128">
         <v>125</v>
       </c>
@@ -9988,7 +11057,7 @@
         <v>-4.7738050000000003</v>
       </c>
     </row>
-    <row r="129" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C129">
         <v>126</v>
       </c>
@@ -10007,7 +11076,7 @@
         <v>-6.7752300000000005</v>
       </c>
     </row>
-    <row r="130" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C130">
         <v>127</v>
       </c>
@@ -10026,7 +11095,7 @@
         <v>5.1488399999999999</v>
       </c>
     </row>
-    <row r="131" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C131">
         <v>128</v>
       </c>
@@ -10045,7 +11114,7 @@
         <v>3.1500699999999999</v>
       </c>
     </row>
-    <row r="132" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C132">
         <v>129</v>
       </c>
@@ -10064,7 +11133,7 @@
         <v>1.1508050000000001</v>
       </c>
     </row>
-    <row r="133" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C133">
         <v>130</v>
       </c>
@@ -10083,7 +11152,7 @@
         <v>-0.84895500000000002</v>
       </c>
     </row>
-    <row r="134" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C134">
         <v>131</v>
       </c>
@@ -10102,7 +11171,7 @@
         <v>-2.8491949999999999</v>
       </c>
     </row>
-    <row r="135" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C135">
         <v>132</v>
       </c>
@@ -10121,7 +11190,7 @@
         <v>-4.8499299999999996</v>
       </c>
     </row>
-    <row r="136" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C136">
         <v>133</v>
       </c>
@@ -10140,7 +11209,7 @@
         <v>-6.8511600000000001</v>
       </c>
     </row>
-    <row r="137" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C137">
         <v>134</v>
       </c>
@@ -10159,7 +11228,7 @@
         <v>5.0713200000000001</v>
       </c>
     </row>
-    <row r="138" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C138">
         <v>135</v>
       </c>
@@ -10178,7 +11247,7 @@
         <v>3.0723400000000001</v>
       </c>
     </row>
-    <row r="139" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C139">
         <v>136</v>
       </c>
@@ -10197,7 +11266,7 @@
         <v>1.0729850000000001</v>
       </c>
     </row>
-    <row r="140" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C140">
         <v>137</v>
       </c>
@@ -10216,7 +11285,7 @@
         <v>-0.92681999999999998</v>
       </c>
     </row>
-    <row r="141" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C141">
         <v>138</v>
       </c>
@@ -10235,7 +11304,7 @@
         <v>-2.9270149999999999</v>
       </c>
     </row>
-    <row r="142" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C142">
         <v>139</v>
       </c>
@@ -10254,7 +11323,7 @@
         <v>-4.9276599999999995</v>
       </c>
     </row>
-    <row r="143" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C143">
         <v>140</v>
       </c>
@@ -10273,7 +11342,7 @@
         <v>-6.9286799999999999</v>
       </c>
     </row>
-    <row r="144" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C144">
         <v>141</v>
       </c>
@@ -10292,7 +11361,7 @@
         <v>4.9924049999999998</v>
       </c>
     </row>
-    <row r="145" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C145">
         <v>142</v>
       </c>
@@ -10311,7 +11380,7 @@
         <v>2.9932600000000003</v>
       </c>
     </row>
-    <row r="146" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C146">
         <v>143</v>
       </c>
@@ -10330,7 +11399,7 @@
         <v>0.99377000000000004</v>
       </c>
     </row>
-    <row r="147" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C147">
         <v>144</v>
       </c>
@@ -10349,7 +11418,7 @@
         <v>-1.006065</v>
       </c>
     </row>
-    <row r="148" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C148">
         <v>145</v>
       </c>
@@ -10368,7 +11437,7 @@
         <v>-3.00623</v>
       </c>
     </row>
-    <row r="149" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C149">
         <v>146</v>
       </c>
@@ -10387,7 +11456,7 @@
         <v>-5.0067399999999997</v>
       </c>
     </row>
-    <row r="150" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C150">
         <v>147</v>
       </c>
@@ -10406,7 +11475,7 @@
         <v>-7.0075950000000002</v>
       </c>
     </row>
-    <row r="151" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C151">
         <v>148</v>
       </c>
@@ -10425,7 +11494,7 @@
         <v>4.9122599999999998</v>
       </c>
     </row>
-    <row r="152" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C152">
         <v>149</v>
       </c>
@@ -10444,7 +11513,7 @@
         <v>2.9128750000000001</v>
       </c>
     </row>
-    <row r="153" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C153">
         <v>150</v>
       </c>
@@ -10463,7 +11532,7 @@
         <v>0.91323500000000002</v>
       </c>
     </row>
-    <row r="154" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C154">
         <v>151</v>
       </c>
@@ -10482,7 +11551,7 @@
         <v>-1.0866450000000001</v>
       </c>
     </row>
-    <row r="155" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C155">
         <v>152</v>
       </c>
@@ -10501,7 +11570,7 @@
         <v>-3.0867649999999998</v>
       </c>
     </row>
-    <row r="156" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C156">
         <v>153</v>
       </c>
@@ -10520,7 +11589,7 @@
         <v>-5.0871250000000003</v>
       </c>
     </row>
-    <row r="157" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C157">
         <v>154</v>
       </c>
@@ -10539,7 +11608,7 @@
         <v>-7.0877400000000002</v>
       </c>
     </row>
-    <row r="158" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C158">
         <v>155</v>
       </c>
@@ -10558,7 +11627,7 @@
         <v>4.8315149999999996</v>
       </c>
     </row>
-    <row r="159" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C159">
         <v>156</v>
       </c>
@@ -10577,7 +11646,7 @@
         <v>2.8319350000000001</v>
       </c>
     </row>
-    <row r="160" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C160">
         <v>157</v>
       </c>
@@ -10596,7 +11665,7 @@
         <v>0.83223500000000006</v>
       </c>
     </row>
-    <row r="161" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C161">
         <v>158</v>
       </c>
@@ -10615,7 +11684,7 @@
         <v>-1.1676899999999999</v>
       </c>
     </row>
-    <row r="162" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C162">
         <v>159</v>
       </c>
@@ -10634,7 +11703,7 @@
         <v>-3.1677650000000002</v>
       </c>
     </row>
-    <row r="163" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C163">
         <v>160</v>
       </c>
@@ -10653,7 +11722,7 @@
         <v>-5.1680650000000004</v>
       </c>
     </row>
-    <row r="164" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C164">
         <v>161</v>
       </c>
@@ -10672,7 +11741,7 @@
         <v>-7.1684850000000004</v>
       </c>
     </row>
-    <row r="165" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C165">
         <v>162</v>
       </c>
@@ -10691,7 +11760,7 @@
         <v>4.7501699999999998</v>
       </c>
     </row>
-    <row r="166" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C166">
         <v>163</v>
       </c>
@@ -10710,7 +11779,7 @@
         <v>2.7503799999999998</v>
       </c>
     </row>
-    <row r="167" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C167">
         <v>164</v>
       </c>
@@ -10729,7 +11798,7 @@
         <v>0.75048500000000007</v>
       </c>
     </row>
-    <row r="168" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C168">
         <v>165</v>
       </c>
@@ -10748,7 +11817,7 @@
         <v>-1.2494700000000001</v>
       </c>
     </row>
-    <row r="169" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C169">
         <v>166</v>
       </c>
@@ -10767,7 +11836,7 @@
         <v>-3.2495149999999997</v>
       </c>
     </row>
-    <row r="170" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C170">
         <v>167</v>
       </c>
@@ -10786,7 +11855,7 @@
         <v>-5.2496200000000002</v>
       </c>
     </row>
-    <row r="171" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C171">
         <v>168</v>
       </c>
@@ -10805,7 +11874,7 @@
         <v>-7.2498300000000002</v>
       </c>
     </row>
-    <row r="172" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C172">
         <v>169</v>
       </c>
@@ -10824,7 +11893,7 @@
         <v>4.6685549999999996</v>
       </c>
     </row>
-    <row r="173" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C173">
         <v>170</v>
       </c>
@@ -10843,7 +11912,7 @@
         <v>2.6684950000000001</v>
       </c>
     </row>
-    <row r="174" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C174">
         <v>171</v>
       </c>
@@ -10862,7 +11931,7 @@
         <v>0.66849500000000006</v>
       </c>
     </row>
-    <row r="175" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C175">
         <v>172</v>
       </c>
@@ -10881,7 +11950,7 @@
         <v>-1.33158</v>
       </c>
     </row>
-    <row r="176" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C176">
         <v>173</v>
       </c>
@@ -10900,7 +11969,7 @@
         <v>-3.3315049999999999</v>
       </c>
     </row>
-    <row r="177" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C177">
         <v>174</v>
       </c>
@@ -10919,7 +11988,7 @@
         <v>-5.3315049999999999</v>
       </c>
     </row>
-    <row r="178" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C178">
         <v>175</v>
       </c>
@@ -10945,4 +12014,2791 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:F178"/>
+  <sheetViews>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88:F94"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="16.58203125" customWidth="1"/>
+    <col min="5" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1739.2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>-37.122</v>
+      </c>
+      <c r="F4" s="5">
+        <v>9.7829999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1227.8</v>
+      </c>
+      <c r="E5" s="5">
+        <v>-50.552</v>
+      </c>
+      <c r="F5" s="5">
+        <v>-108.96</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5">
+        <v>651.54999999999995</v>
+      </c>
+      <c r="E6" s="5">
+        <v>-3.5676000000000001</v>
+      </c>
+      <c r="F6" s="5">
+        <v>-125.52</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="5">
+        <v>-4.5971999999999998E-12</v>
+      </c>
+      <c r="E7" s="5">
+        <v>-9.8125999999999996E-12</v>
+      </c>
+      <c r="F7" s="5">
+        <v>-137.47999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5">
+        <v>-651.54999999999995</v>
+      </c>
+      <c r="E8" s="5">
+        <v>3.5676000000000001</v>
+      </c>
+      <c r="F8" s="5">
+        <v>-125.52</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9" s="5">
+        <v>-1227.8</v>
+      </c>
+      <c r="E9" s="5">
+        <v>50.552</v>
+      </c>
+      <c r="F9" s="5">
+        <v>-108.96</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5">
+        <v>-1739.2</v>
+      </c>
+      <c r="E10" s="5">
+        <v>37.122</v>
+      </c>
+      <c r="F10" s="5">
+        <v>9.7829999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1991</v>
+      </c>
+      <c r="E11" s="5">
+        <v>-10.050000000000001</v>
+      </c>
+      <c r="F11" s="5">
+        <v>22.678000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1319</v>
+      </c>
+      <c r="E12" s="5">
+        <v>16.393000000000001</v>
+      </c>
+      <c r="F12" s="5">
+        <v>-49.186999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" s="5">
+        <v>663.81</v>
+      </c>
+      <c r="E13" s="5">
+        <v>8.5655999999999999</v>
+      </c>
+      <c r="F13" s="5">
+        <v>-95.281999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14" s="5">
+        <v>9.0689999999999999E-11</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1.62E-12</v>
+      </c>
+      <c r="F14" s="5">
+        <v>-109.64</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15" s="5">
+        <v>-663.81</v>
+      </c>
+      <c r="E15" s="5">
+        <v>-8.5655999999999999</v>
+      </c>
+      <c r="F15" s="5">
+        <v>-95.281999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>13</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-1319</v>
+      </c>
+      <c r="E16" s="5">
+        <v>-16.393000000000001</v>
+      </c>
+      <c r="F16" s="5">
+        <v>-49.186999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>14</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-1991</v>
+      </c>
+      <c r="E17" s="5">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="F17" s="5">
+        <v>22.678000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1692.8</v>
+      </c>
+      <c r="E18" s="5">
+        <v>-52.463999999999999</v>
+      </c>
+      <c r="F18" s="5">
+        <v>-29.542999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1184.5999999999999</v>
+      </c>
+      <c r="E19" s="5">
+        <v>4.3053999999999997</v>
+      </c>
+      <c r="F19" s="5">
+        <v>-63.902999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>17</v>
+      </c>
+      <c r="D20" s="5">
+        <v>593.57000000000005</v>
+      </c>
+      <c r="E20" s="5">
+        <v>-8.0779999999999994</v>
+      </c>
+      <c r="F20" s="5">
+        <v>-113.19</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>18</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-1.0970999999999999E-11</v>
+      </c>
+      <c r="E21" s="5">
+        <v>-2.1770999999999998E-11</v>
+      </c>
+      <c r="F21" s="5">
+        <v>-122.89</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>19</v>
+      </c>
+      <c r="D22" s="5">
+        <v>-593.57000000000005</v>
+      </c>
+      <c r="E22" s="5">
+        <v>8.0779999999999994</v>
+      </c>
+      <c r="F22" s="5">
+        <v>-113.19</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-1184.5999999999999</v>
+      </c>
+      <c r="E23" s="5">
+        <v>-4.3053999999999997</v>
+      </c>
+      <c r="F23" s="5">
+        <v>-63.902999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>21</v>
+      </c>
+      <c r="D24" s="5">
+        <v>-1692.8</v>
+      </c>
+      <c r="E24" s="5">
+        <v>52.463999999999999</v>
+      </c>
+      <c r="F24" s="5">
+        <v>-29.542999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>22</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1686.9</v>
+      </c>
+      <c r="E25" s="5">
+        <v>-39.08</v>
+      </c>
+      <c r="F25" s="5">
+        <v>-27.446999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>23</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1149</v>
+      </c>
+      <c r="E26" s="5">
+        <v>10.475</v>
+      </c>
+      <c r="F26" s="5">
+        <v>-57.88</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>24</v>
+      </c>
+      <c r="D27" s="5">
+        <v>578.91</v>
+      </c>
+      <c r="E27" s="5">
+        <v>-3.2082999999999999</v>
+      </c>
+      <c r="F27" s="5">
+        <v>-95.858000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>25</v>
+      </c>
+      <c r="D28" s="5">
+        <v>7.045E-11</v>
+      </c>
+      <c r="E28" s="5">
+        <v>-1.0488E-11</v>
+      </c>
+      <c r="F28" s="5">
+        <v>-113.35</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>26</v>
+      </c>
+      <c r="D29" s="5">
+        <v>-578.91</v>
+      </c>
+      <c r="E29" s="5">
+        <v>3.2082999999999999</v>
+      </c>
+      <c r="F29" s="5">
+        <v>-95.858000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>27</v>
+      </c>
+      <c r="D30" s="5">
+        <v>-1149</v>
+      </c>
+      <c r="E30" s="5">
+        <v>-10.475</v>
+      </c>
+      <c r="F30" s="5">
+        <v>-57.88</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>28</v>
+      </c>
+      <c r="D31" s="5">
+        <v>-1686.9</v>
+      </c>
+      <c r="E31" s="5">
+        <v>39.08</v>
+      </c>
+      <c r="F31" s="5">
+        <v>-27.446999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>29</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1703.3</v>
+      </c>
+      <c r="E32" s="5">
+        <v>-14.91</v>
+      </c>
+      <c r="F32" s="5">
+        <v>-27.388999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>30</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1131.8</v>
+      </c>
+      <c r="E33" s="5">
+        <v>24.789000000000001</v>
+      </c>
+      <c r="F33" s="5">
+        <v>-59.402000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>31</v>
+      </c>
+      <c r="D34" s="5">
+        <v>579.71</v>
+      </c>
+      <c r="E34" s="5">
+        <v>9.1092999999999993</v>
+      </c>
+      <c r="F34" s="5">
+        <v>-110.97</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>32</v>
+      </c>
+      <c r="D35" s="5">
+        <v>7.9083E-11</v>
+      </c>
+      <c r="E35" s="5">
+        <v>4.5474999999999996E-13</v>
+      </c>
+      <c r="F35" s="5">
+        <v>-119.51</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>33</v>
+      </c>
+      <c r="D36" s="5">
+        <v>-579.71</v>
+      </c>
+      <c r="E36" s="5">
+        <v>-9.1092999999999993</v>
+      </c>
+      <c r="F36" s="5">
+        <v>-110.97</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>34</v>
+      </c>
+      <c r="D37" s="5">
+        <v>-1131.8</v>
+      </c>
+      <c r="E37" s="5">
+        <v>-24.789000000000001</v>
+      </c>
+      <c r="F37" s="5">
+        <v>-59.402000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>35</v>
+      </c>
+      <c r="D38" s="5">
+        <v>-1703.3</v>
+      </c>
+      <c r="E38" s="5">
+        <v>14.91</v>
+      </c>
+      <c r="F38" s="5">
+        <v>-27.388999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>36</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1512.1</v>
+      </c>
+      <c r="E39" s="5">
+        <v>-36.268000000000001</v>
+      </c>
+      <c r="F39" s="5">
+        <v>-35.69</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>37</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1031.7</v>
+      </c>
+      <c r="E40" s="5">
+        <v>12.475</v>
+      </c>
+      <c r="F40" s="5">
+        <v>-70.444000000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>38</v>
+      </c>
+      <c r="D41" s="5">
+        <v>517.57000000000005</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0.32968999999999998</v>
+      </c>
+      <c r="F41" s="5">
+        <v>-121.6</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>39</v>
+      </c>
+      <c r="D42" s="5">
+        <v>-9.9873999999999995E-11</v>
+      </c>
+      <c r="E42" s="5">
+        <v>-2.9614999999999999E-11</v>
+      </c>
+      <c r="F42" s="5">
+        <v>-130.72</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>40</v>
+      </c>
+      <c r="D43" s="5">
+        <v>-517.57000000000005</v>
+      </c>
+      <c r="E43" s="5">
+        <v>-0.32968999999999998</v>
+      </c>
+      <c r="F43" s="5">
+        <v>-121.6</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <v>41</v>
+      </c>
+      <c r="D44" s="5">
+        <v>-1031.7</v>
+      </c>
+      <c r="E44" s="5">
+        <v>-12.475</v>
+      </c>
+      <c r="F44" s="5">
+        <v>-70.444000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>42</v>
+      </c>
+      <c r="D45" s="5">
+        <v>-1512.1</v>
+      </c>
+      <c r="E45" s="5">
+        <v>36.268000000000001</v>
+      </c>
+      <c r="F45" s="5">
+        <v>-35.69</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>43</v>
+      </c>
+      <c r="D46" s="5">
+        <v>1426.6</v>
+      </c>
+      <c r="E46" s="5">
+        <v>-33.805</v>
+      </c>
+      <c r="F46" s="5">
+        <v>-25.902999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <v>44</v>
+      </c>
+      <c r="D47" s="5">
+        <v>965.69</v>
+      </c>
+      <c r="E47" s="5">
+        <v>7.8789999999999996</v>
+      </c>
+      <c r="F47" s="5">
+        <v>-64.227999999999994</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>45</v>
+      </c>
+      <c r="D48" s="5">
+        <v>487.36</v>
+      </c>
+      <c r="E48" s="5">
+        <v>-2.3378000000000001</v>
+      </c>
+      <c r="F48" s="5">
+        <v>-116.89</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <v>46</v>
+      </c>
+      <c r="D49" s="5">
+        <v>4.9026999999999998E-11</v>
+      </c>
+      <c r="E49" s="5">
+        <v>-2.2793999999999998E-11</v>
+      </c>
+      <c r="F49" s="5">
+        <v>-124.35</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <v>47</v>
+      </c>
+      <c r="D50" s="5">
+        <v>-487.36</v>
+      </c>
+      <c r="E50" s="5">
+        <v>2.3378000000000001</v>
+      </c>
+      <c r="F50" s="5">
+        <v>-116.89</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C51">
+        <v>48</v>
+      </c>
+      <c r="D51" s="5">
+        <v>-965.69</v>
+      </c>
+      <c r="E51" s="5">
+        <v>-7.8789999999999996</v>
+      </c>
+      <c r="F51" s="5">
+        <v>-64.227999999999994</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C52">
+        <v>49</v>
+      </c>
+      <c r="D52" s="5">
+        <v>-1426.6</v>
+      </c>
+      <c r="E52" s="5">
+        <v>33.805</v>
+      </c>
+      <c r="F52" s="5">
+        <v>-25.902999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <v>50</v>
+      </c>
+      <c r="D53" s="5">
+        <v>1347</v>
+      </c>
+      <c r="E53" s="5">
+        <v>-33.244999999999997</v>
+      </c>
+      <c r="F53" s="5">
+        <v>-19.384</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C54">
+        <v>51</v>
+      </c>
+      <c r="D54" s="5">
+        <v>929.31</v>
+      </c>
+      <c r="E54" s="5">
+        <v>9.5388999999999999</v>
+      </c>
+      <c r="F54" s="5">
+        <v>-58.744</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C55">
+        <v>52</v>
+      </c>
+      <c r="D55" s="5">
+        <v>465.23</v>
+      </c>
+      <c r="E55" s="5">
+        <v>-1.5725</v>
+      </c>
+      <c r="F55" s="5">
+        <v>-110.24</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <v>53</v>
+      </c>
+      <c r="D56" s="5">
+        <v>-3.7431000000000002E-11</v>
+      </c>
+      <c r="E56" s="5">
+        <v>-3.7288999999999999E-11</v>
+      </c>
+      <c r="F56" s="5">
+        <v>-119.14</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C57">
+        <v>54</v>
+      </c>
+      <c r="D57" s="5">
+        <v>-465.23</v>
+      </c>
+      <c r="E57" s="5">
+        <v>1.5725</v>
+      </c>
+      <c r="F57" s="5">
+        <v>-110.24</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C58">
+        <v>55</v>
+      </c>
+      <c r="D58" s="5">
+        <v>-929.31</v>
+      </c>
+      <c r="E58" s="5">
+        <v>-9.5388999999999999</v>
+      </c>
+      <c r="F58" s="5">
+        <v>-58.744</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C59">
+        <v>56</v>
+      </c>
+      <c r="D59" s="5">
+        <v>-1347</v>
+      </c>
+      <c r="E59" s="5">
+        <v>33.244999999999997</v>
+      </c>
+      <c r="F59" s="5">
+        <v>-19.384</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <v>57</v>
+      </c>
+      <c r="D60" s="5">
+        <v>1345.9</v>
+      </c>
+      <c r="E60" s="5">
+        <v>-19.064</v>
+      </c>
+      <c r="F60" s="5">
+        <v>-35.237000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C61">
+        <v>58</v>
+      </c>
+      <c r="D61" s="5">
+        <v>897.7</v>
+      </c>
+      <c r="E61" s="5">
+        <v>14.202</v>
+      </c>
+      <c r="F61" s="5">
+        <v>-74.087999999999994</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C62">
+        <v>59</v>
+      </c>
+      <c r="D62" s="5">
+        <v>458.89</v>
+      </c>
+      <c r="E62" s="5">
+        <v>3.96</v>
+      </c>
+      <c r="F62" s="5">
+        <v>-125.87</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C63">
+        <v>60</v>
+      </c>
+      <c r="D63" s="5">
+        <v>1.7764000000000001E-11</v>
+      </c>
+      <c r="E63" s="5">
+        <v>-7.0485999999999998E-11</v>
+      </c>
+      <c r="F63" s="5">
+        <v>-136.15</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C64">
+        <v>61</v>
+      </c>
+      <c r="D64" s="5">
+        <v>-458.89</v>
+      </c>
+      <c r="E64" s="5">
+        <v>-3.96</v>
+      </c>
+      <c r="F64" s="5">
+        <v>-125.87</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <v>62</v>
+      </c>
+      <c r="D65" s="5">
+        <v>-897.7</v>
+      </c>
+      <c r="E65" s="5">
+        <v>-14.202</v>
+      </c>
+      <c r="F65" s="5">
+        <v>-74.087999999999994</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>63</v>
+      </c>
+      <c r="D66" s="5">
+        <v>-1345.9</v>
+      </c>
+      <c r="E66" s="5">
+        <v>19.064</v>
+      </c>
+      <c r="F66" s="5">
+        <v>-35.237000000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C67">
+        <v>64</v>
+      </c>
+      <c r="D67" s="5">
+        <v>1176.2</v>
+      </c>
+      <c r="E67" s="5">
+        <v>-30.387</v>
+      </c>
+      <c r="F67" s="5">
+        <v>-30.09</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C68">
+        <v>65</v>
+      </c>
+      <c r="D68" s="5">
+        <v>809.9</v>
+      </c>
+      <c r="E68" s="5">
+        <v>2.9420000000000002</v>
+      </c>
+      <c r="F68" s="5">
+        <v>-66.716999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C69">
+        <v>66</v>
+      </c>
+      <c r="D69" s="5">
+        <v>407.25</v>
+      </c>
+      <c r="E69" s="5">
+        <v>-3.3988</v>
+      </c>
+      <c r="F69" s="5">
+        <v>-124.98</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C70">
+        <v>67</v>
+      </c>
+      <c r="D70" s="5">
+        <v>2.9330999999999999E-11</v>
+      </c>
+      <c r="E70" s="5">
+        <v>1.1822999999999999E-11</v>
+      </c>
+      <c r="F70" s="5">
+        <v>-130.35</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C71">
+        <v>68</v>
+      </c>
+      <c r="D71" s="5">
+        <v>-407.25</v>
+      </c>
+      <c r="E71" s="5">
+        <v>3.3988</v>
+      </c>
+      <c r="F71" s="5">
+        <v>-124.98</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C72">
+        <v>69</v>
+      </c>
+      <c r="D72" s="5">
+        <v>-809.9</v>
+      </c>
+      <c r="E72" s="5">
+        <v>-2.9420000000000002</v>
+      </c>
+      <c r="F72" s="5">
+        <v>-66.716999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C73">
+        <v>70</v>
+      </c>
+      <c r="D73" s="5">
+        <v>-1176.2</v>
+      </c>
+      <c r="E73" s="5">
+        <v>30.387</v>
+      </c>
+      <c r="F73" s="5">
+        <v>-30.09</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C74">
+        <v>71</v>
+      </c>
+      <c r="D74" s="5">
+        <v>1056.8</v>
+      </c>
+      <c r="E74" s="5">
+        <v>-39.595999999999997</v>
+      </c>
+      <c r="F74" s="5">
+        <v>-29.675000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C75">
+        <v>72</v>
+      </c>
+      <c r="D75" s="5">
+        <v>757.14</v>
+      </c>
+      <c r="E75" s="5">
+        <v>-1.0557000000000001</v>
+      </c>
+      <c r="F75" s="5">
+        <v>-63.826999999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C76">
+        <v>73</v>
+      </c>
+      <c r="D76" s="5">
+        <v>374.25</v>
+      </c>
+      <c r="E76" s="5">
+        <v>-8.5656999999999996</v>
+      </c>
+      <c r="F76" s="5">
+        <v>-107.54</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C77">
+        <v>74</v>
+      </c>
+      <c r="D77" s="5">
+        <v>-3.5583999999999997E-11</v>
+      </c>
+      <c r="E77" s="5">
+        <v>-4.6156999999999999E-11</v>
+      </c>
+      <c r="F77" s="5">
+        <v>-121.47</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C78">
+        <v>75</v>
+      </c>
+      <c r="D78" s="5">
+        <v>-374.25</v>
+      </c>
+      <c r="E78" s="5">
+        <v>8.5656999999999996</v>
+      </c>
+      <c r="F78" s="5">
+        <v>-107.54</v>
+      </c>
+    </row>
+    <row r="79" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C79">
+        <v>76</v>
+      </c>
+      <c r="D79" s="5">
+        <v>-757.14</v>
+      </c>
+      <c r="E79" s="5">
+        <v>1.0557000000000001</v>
+      </c>
+      <c r="F79" s="5">
+        <v>-63.826999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C80">
+        <v>77</v>
+      </c>
+      <c r="D80" s="5">
+        <v>-1056.8</v>
+      </c>
+      <c r="E80" s="5">
+        <v>39.595999999999997</v>
+      </c>
+      <c r="F80" s="5">
+        <v>-29.675000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C81">
+        <v>78</v>
+      </c>
+      <c r="D81" s="5">
+        <v>1097.5</v>
+      </c>
+      <c r="E81" s="5">
+        <v>-12.785</v>
+      </c>
+      <c r="F81" s="5">
+        <v>-30.016999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C82">
+        <v>79</v>
+      </c>
+      <c r="D82" s="5">
+        <v>732.49</v>
+      </c>
+      <c r="E82" s="5">
+        <v>12.724</v>
+      </c>
+      <c r="F82" s="5">
+        <v>-62.639000000000003</v>
+      </c>
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C83">
+        <v>80</v>
+      </c>
+      <c r="D83" s="5">
+        <v>374.42</v>
+      </c>
+      <c r="E83" s="5">
+        <v>3.4165999999999999</v>
+      </c>
+      <c r="F83" s="5">
+        <v>-107.95</v>
+      </c>
+    </row>
+    <row r="84" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C84">
+        <v>81</v>
+      </c>
+      <c r="D84" s="5">
+        <v>2.0407000000000001E-11</v>
+      </c>
+      <c r="E84" s="5">
+        <v>-2.5693E-11</v>
+      </c>
+      <c r="F84" s="5">
+        <v>-122.23</v>
+      </c>
+    </row>
+    <row r="85" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C85">
+        <v>82</v>
+      </c>
+      <c r="D85" s="5">
+        <v>-374.42</v>
+      </c>
+      <c r="E85" s="5">
+        <v>-3.4165999999999999</v>
+      </c>
+      <c r="F85" s="5">
+        <v>-107.95</v>
+      </c>
+    </row>
+    <row r="86" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C86">
+        <v>83</v>
+      </c>
+      <c r="D86" s="5">
+        <v>-732.49</v>
+      </c>
+      <c r="E86" s="5">
+        <v>-12.724</v>
+      </c>
+      <c r="F86" s="5">
+        <v>-62.639000000000003</v>
+      </c>
+    </row>
+    <row r="87" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C87">
+        <v>84</v>
+      </c>
+      <c r="D87" s="5">
+        <v>-1097.5</v>
+      </c>
+      <c r="E87" s="5">
+        <v>12.785</v>
+      </c>
+      <c r="F87" s="5">
+        <v>-30.016999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C88">
+        <v>85</v>
+      </c>
+      <c r="D88" s="5">
+        <v>1013.1</v>
+      </c>
+      <c r="E88" s="5">
+        <v>-12.238</v>
+      </c>
+      <c r="F88" s="5">
+        <v>-31.899000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C89">
+        <v>86</v>
+      </c>
+      <c r="D89" s="5">
+        <v>662.02</v>
+      </c>
+      <c r="E89" s="5">
+        <v>13.35</v>
+      </c>
+      <c r="F89" s="5">
+        <v>-66.944000000000003</v>
+      </c>
+    </row>
+    <row r="90" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C90">
+        <v>87</v>
+      </c>
+      <c r="D90" s="5">
+        <v>338.73</v>
+      </c>
+      <c r="E90" s="5">
+        <v>3.5527000000000002</v>
+      </c>
+      <c r="F90" s="5">
+        <v>-117.47</v>
+      </c>
+    </row>
+    <row r="91" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C91">
+        <v>88</v>
+      </c>
+      <c r="D91" s="5">
+        <v>-3.8937999999999999E-11</v>
+      </c>
+      <c r="E91" s="5">
+        <v>-9.8453000000000006E-11</v>
+      </c>
+      <c r="F91" s="5">
+        <v>-127.24</v>
+      </c>
+    </row>
+    <row r="92" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C92">
+        <v>89</v>
+      </c>
+      <c r="D92" s="5">
+        <v>-338.73</v>
+      </c>
+      <c r="E92" s="5">
+        <v>-3.5527000000000002</v>
+      </c>
+      <c r="F92" s="5">
+        <v>-117.47</v>
+      </c>
+    </row>
+    <row r="93" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C93">
+        <v>90</v>
+      </c>
+      <c r="D93" s="5">
+        <v>-662.02</v>
+      </c>
+      <c r="E93" s="5">
+        <v>-13.35</v>
+      </c>
+      <c r="F93" s="5">
+        <v>-66.944000000000003</v>
+      </c>
+    </row>
+    <row r="94" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C94">
+        <v>91</v>
+      </c>
+      <c r="D94" s="5">
+        <v>-1013.1</v>
+      </c>
+      <c r="E94" s="5">
+        <v>12.238</v>
+      </c>
+      <c r="F94" s="5">
+        <v>-31.899000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C95">
+        <v>92</v>
+      </c>
+      <c r="D95" s="5">
+        <v>904.78</v>
+      </c>
+      <c r="E95" s="5">
+        <v>-17.776</v>
+      </c>
+      <c r="F95" s="5">
+        <v>-30.125</v>
+      </c>
+    </row>
+    <row r="96" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C96">
+        <v>93</v>
+      </c>
+      <c r="D96" s="5">
+        <v>605.70000000000005</v>
+      </c>
+      <c r="E96" s="5">
+        <v>6.4939999999999998</v>
+      </c>
+      <c r="F96" s="5">
+        <v>-69.757000000000005</v>
+      </c>
+    </row>
+    <row r="97" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C97">
+        <v>94</v>
+      </c>
+      <c r="D97" s="5">
+        <v>308.01</v>
+      </c>
+      <c r="E97" s="5">
+        <v>1.6526000000000001</v>
+      </c>
+      <c r="F97" s="5">
+        <v>-126.93</v>
+      </c>
+    </row>
+    <row r="98" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C98">
+        <v>95</v>
+      </c>
+      <c r="D98" s="5">
+        <v>-3.4673999999999997E-11</v>
+      </c>
+      <c r="E98" s="5">
+        <v>3.4105999999999997E-11</v>
+      </c>
+      <c r="F98" s="5">
+        <v>-132.19</v>
+      </c>
+    </row>
+    <row r="99" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C99">
+        <v>96</v>
+      </c>
+      <c r="D99" s="5">
+        <v>-308.01</v>
+      </c>
+      <c r="E99" s="5">
+        <v>-1.6526000000000001</v>
+      </c>
+      <c r="F99" s="5">
+        <v>-126.93</v>
+      </c>
+    </row>
+    <row r="100" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C100">
+        <v>97</v>
+      </c>
+      <c r="D100" s="5">
+        <v>-605.70000000000005</v>
+      </c>
+      <c r="E100" s="5">
+        <v>-6.4939999999999998</v>
+      </c>
+      <c r="F100" s="5">
+        <v>-69.757000000000005</v>
+      </c>
+    </row>
+    <row r="101" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C101">
+        <v>98</v>
+      </c>
+      <c r="D101" s="5">
+        <v>-904.78</v>
+      </c>
+      <c r="E101" s="5">
+        <v>17.776</v>
+      </c>
+      <c r="F101" s="5">
+        <v>-30.125</v>
+      </c>
+    </row>
+    <row r="102" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C102">
+        <v>99</v>
+      </c>
+      <c r="D102" s="5">
+        <v>752.23</v>
+      </c>
+      <c r="E102" s="5">
+        <v>-26.533000000000001</v>
+      </c>
+      <c r="F102" s="5">
+        <v>-20.456</v>
+      </c>
+    </row>
+    <row r="103" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C103">
+        <v>100</v>
+      </c>
+      <c r="D103" s="5">
+        <v>537.74</v>
+      </c>
+      <c r="E103" s="5">
+        <v>0.43885999999999997</v>
+      </c>
+      <c r="F103" s="5">
+        <v>-61.195</v>
+      </c>
+    </row>
+    <row r="104" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C104">
+        <v>101</v>
+      </c>
+      <c r="D104" s="5">
+        <v>265.82</v>
+      </c>
+      <c r="E104" s="5">
+        <v>-4.0411000000000001</v>
+      </c>
+      <c r="F104" s="5">
+        <v>-115.82</v>
+      </c>
+    </row>
+    <row r="105" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C105">
+        <v>102</v>
+      </c>
+      <c r="D105" s="5">
+        <v>2.7399000000000001E-11</v>
+      </c>
+      <c r="E105" s="5">
+        <v>8.6175000000000002E-11</v>
+      </c>
+      <c r="F105" s="5">
+        <v>-122.19</v>
+      </c>
+    </row>
+    <row r="106" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C106">
+        <v>103</v>
+      </c>
+      <c r="D106" s="5">
+        <v>-265.82</v>
+      </c>
+      <c r="E106" s="5">
+        <v>4.0411000000000001</v>
+      </c>
+      <c r="F106" s="5">
+        <v>-115.82</v>
+      </c>
+    </row>
+    <row r="107" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C107">
+        <v>104</v>
+      </c>
+      <c r="D107" s="5">
+        <v>-537.74</v>
+      </c>
+      <c r="E107" s="5">
+        <v>-0.43885999999999997</v>
+      </c>
+      <c r="F107" s="5">
+        <v>-61.195</v>
+      </c>
+    </row>
+    <row r="108" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C108">
+        <v>105</v>
+      </c>
+      <c r="D108" s="5">
+        <v>-752.23</v>
+      </c>
+      <c r="E108" s="5">
+        <v>26.533000000000001</v>
+      </c>
+      <c r="F108" s="5">
+        <v>-20.456</v>
+      </c>
+    </row>
+    <row r="109" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C109">
+        <v>106</v>
+      </c>
+      <c r="D109" s="5">
+        <v>719.14</v>
+      </c>
+      <c r="E109" s="5">
+        <v>-17.087</v>
+      </c>
+      <c r="F109" s="5">
+        <v>-23.745999999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C110">
+        <v>107</v>
+      </c>
+      <c r="D110" s="5">
+        <v>497.09</v>
+      </c>
+      <c r="E110" s="5">
+        <v>3.7267999999999999</v>
+      </c>
+      <c r="F110" s="5">
+        <v>-62.392000000000003</v>
+      </c>
+    </row>
+    <row r="111" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C111">
+        <v>108</v>
+      </c>
+      <c r="D111" s="5">
+        <v>249.63</v>
+      </c>
+      <c r="E111" s="5">
+        <v>-2.8653</v>
+      </c>
+      <c r="F111" s="5">
+        <v>-109.31</v>
+      </c>
+    </row>
+    <row r="112" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C112">
+        <v>109</v>
+      </c>
+      <c r="D112" s="5">
+        <v>-2.0576999999999998E-11</v>
+      </c>
+      <c r="E112" s="5">
+        <v>-6.5483999999999998E-11</v>
+      </c>
+      <c r="F112" s="5">
+        <v>-121.26</v>
+      </c>
+    </row>
+    <row r="113" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C113">
+        <v>110</v>
+      </c>
+      <c r="D113" s="5">
+        <v>-249.63</v>
+      </c>
+      <c r="E113" s="5">
+        <v>2.8653</v>
+      </c>
+      <c r="F113" s="5">
+        <v>-109.31</v>
+      </c>
+    </row>
+    <row r="114" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C114">
+        <v>111</v>
+      </c>
+      <c r="D114" s="5">
+        <v>-497.09</v>
+      </c>
+      <c r="E114" s="5">
+        <v>-3.7267999999999999</v>
+      </c>
+      <c r="F114" s="5">
+        <v>-62.392000000000003</v>
+      </c>
+    </row>
+    <row r="115" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C115">
+        <v>112</v>
+      </c>
+      <c r="D115" s="5">
+        <v>-719.14</v>
+      </c>
+      <c r="E115" s="5">
+        <v>17.087</v>
+      </c>
+      <c r="F115" s="5">
+        <v>-23.745999999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C116">
+        <v>113</v>
+      </c>
+      <c r="D116" s="5">
+        <v>683.91</v>
+      </c>
+      <c r="E116" s="5">
+        <v>-4.9755000000000003</v>
+      </c>
+      <c r="F116" s="5">
+        <v>-27.099</v>
+      </c>
+    </row>
+    <row r="117" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C117">
+        <v>114</v>
+      </c>
+      <c r="D117" s="5">
+        <v>454.99</v>
+      </c>
+      <c r="E117" s="5">
+        <v>10.428000000000001</v>
+      </c>
+      <c r="F117" s="5">
+        <v>-63.421999999999997</v>
+      </c>
+    </row>
+    <row r="118" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C118">
+        <v>115</v>
+      </c>
+      <c r="D118" s="5">
+        <v>232.57</v>
+      </c>
+      <c r="E118" s="5">
+        <v>4.1501999999999999</v>
+      </c>
+      <c r="F118" s="5">
+        <v>-116</v>
+      </c>
+    </row>
+    <row r="119" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C119">
+        <v>116</v>
+      </c>
+      <c r="D119" s="5">
+        <v>-3.9676999999999999E-11</v>
+      </c>
+      <c r="E119" s="5">
+        <v>-5.6842999999999999E-12</v>
+      </c>
+      <c r="F119" s="5">
+        <v>-125.87</v>
+      </c>
+    </row>
+    <row r="120" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C120">
+        <v>117</v>
+      </c>
+      <c r="D120" s="5">
+        <v>-232.57</v>
+      </c>
+      <c r="E120" s="5">
+        <v>-4.1501999999999999</v>
+      </c>
+      <c r="F120" s="5">
+        <v>-116</v>
+      </c>
+    </row>
+    <row r="121" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C121">
+        <v>118</v>
+      </c>
+      <c r="D121" s="5">
+        <v>-454.99</v>
+      </c>
+      <c r="E121" s="5">
+        <v>-10.428000000000001</v>
+      </c>
+      <c r="F121" s="5">
+        <v>-63.421999999999997</v>
+      </c>
+    </row>
+    <row r="122" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C122">
+        <v>119</v>
+      </c>
+      <c r="D122" s="5">
+        <v>-683.91</v>
+      </c>
+      <c r="E122" s="5">
+        <v>4.9755000000000003</v>
+      </c>
+      <c r="F122" s="5">
+        <v>-27.099</v>
+      </c>
+    </row>
+    <row r="123" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C123">
+        <v>120</v>
+      </c>
+      <c r="D123" s="5">
+        <v>558.27</v>
+      </c>
+      <c r="E123" s="5">
+        <v>-13.276</v>
+      </c>
+      <c r="F123" s="5">
+        <v>-29.657</v>
+      </c>
+    </row>
+    <row r="124" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C124">
+        <v>121</v>
+      </c>
+      <c r="D124" s="5">
+        <v>377.9</v>
+      </c>
+      <c r="E124" s="5">
+        <v>4.7035999999999998</v>
+      </c>
+      <c r="F124" s="5">
+        <v>-66.605000000000004</v>
+      </c>
+    </row>
+    <row r="125" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C125">
+        <v>122</v>
+      </c>
+      <c r="D125" s="5">
+        <v>190.62</v>
+      </c>
+      <c r="E125" s="5">
+        <v>0.21883</v>
+      </c>
+      <c r="F125" s="5">
+        <v>-117.8</v>
+      </c>
+    </row>
+    <row r="126" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C126">
+        <v>123</v>
+      </c>
+      <c r="D126" s="5">
+        <v>-1.5574999999999999E-11</v>
+      </c>
+      <c r="E126" s="5">
+        <v>-7.1395000000000003E-11</v>
+      </c>
+      <c r="F126" s="5">
+        <v>-127.35</v>
+      </c>
+    </row>
+    <row r="127" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C127">
+        <v>124</v>
+      </c>
+      <c r="D127" s="5">
+        <v>-190.62</v>
+      </c>
+      <c r="E127" s="5">
+        <v>-0.21883</v>
+      </c>
+      <c r="F127" s="5">
+        <v>-117.8</v>
+      </c>
+    </row>
+    <row r="128" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C128">
+        <v>125</v>
+      </c>
+      <c r="D128" s="5">
+        <v>-377.9</v>
+      </c>
+      <c r="E128" s="5">
+        <v>-4.7035999999999998</v>
+      </c>
+      <c r="F128" s="5">
+        <v>-66.605000000000004</v>
+      </c>
+    </row>
+    <row r="129" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C129">
+        <v>126</v>
+      </c>
+      <c r="D129" s="5">
+        <v>-558.27</v>
+      </c>
+      <c r="E129" s="5">
+        <v>13.276</v>
+      </c>
+      <c r="F129" s="5">
+        <v>-29.657</v>
+      </c>
+    </row>
+    <row r="130" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C130">
+        <v>127</v>
+      </c>
+      <c r="D130" s="5">
+        <v>475.71</v>
+      </c>
+      <c r="E130" s="5">
+        <v>-11.422000000000001</v>
+      </c>
+      <c r="F130" s="5">
+        <v>-25.553000000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C131">
+        <v>128</v>
+      </c>
+      <c r="D131" s="5">
+        <v>321.72000000000003</v>
+      </c>
+      <c r="E131" s="5">
+        <v>2.5497999999999998</v>
+      </c>
+      <c r="F131" s="5">
+        <v>-63.878</v>
+      </c>
+    </row>
+    <row r="132" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C132">
+        <v>129</v>
+      </c>
+      <c r="D132" s="5">
+        <v>162.46</v>
+      </c>
+      <c r="E132" s="5">
+        <v>-0.81769000000000003</v>
+      </c>
+      <c r="F132" s="5">
+        <v>-116.73</v>
+      </c>
+    </row>
+    <row r="133" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C133">
+        <v>130</v>
+      </c>
+      <c r="D133" s="5">
+        <v>3.2514000000000001E-11</v>
+      </c>
+      <c r="E133" s="5">
+        <v>1.1822999999999999E-11</v>
+      </c>
+      <c r="F133" s="5">
+        <v>-124.65</v>
+      </c>
+    </row>
+    <row r="134" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C134">
+        <v>131</v>
+      </c>
+      <c r="D134" s="5">
+        <v>-162.46</v>
+      </c>
+      <c r="E134" s="5">
+        <v>0.81769000000000003</v>
+      </c>
+      <c r="F134" s="5">
+        <v>-116.73</v>
+      </c>
+    </row>
+    <row r="135" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C135">
+        <v>132</v>
+      </c>
+      <c r="D135" s="5">
+        <v>-321.72000000000003</v>
+      </c>
+      <c r="E135" s="5">
+        <v>-2.5497999999999998</v>
+      </c>
+      <c r="F135" s="5">
+        <v>-63.878</v>
+      </c>
+    </row>
+    <row r="136" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C136">
+        <v>133</v>
+      </c>
+      <c r="D136" s="5">
+        <v>-475.71</v>
+      </c>
+      <c r="E136" s="5">
+        <v>11.422000000000001</v>
+      </c>
+      <c r="F136" s="5">
+        <v>-25.553000000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C137">
+        <v>134</v>
+      </c>
+      <c r="D137" s="5">
+        <v>394.71</v>
+      </c>
+      <c r="E137" s="5">
+        <v>-9.9284999999999997</v>
+      </c>
+      <c r="F137" s="5">
+        <v>-24.611000000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C138">
+        <v>135</v>
+      </c>
+      <c r="D138" s="5">
+        <v>275.64999999999998</v>
+      </c>
+      <c r="E138" s="5">
+        <v>2.444</v>
+      </c>
+      <c r="F138" s="5">
+        <v>-62.692999999999998</v>
+      </c>
+    </row>
+    <row r="139" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C139">
+        <v>136</v>
+      </c>
+      <c r="D139" s="5">
+        <v>137.22999999999999</v>
+      </c>
+      <c r="E139" s="5">
+        <v>-1.0091000000000001</v>
+      </c>
+      <c r="F139" s="5">
+        <v>-114.02</v>
+      </c>
+    </row>
+    <row r="140" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C140">
+        <v>137</v>
+      </c>
+      <c r="D140" s="5">
+        <v>5.5707000000000001E-12</v>
+      </c>
+      <c r="E140" s="5">
+        <v>-1.6598E-10</v>
+      </c>
+      <c r="F140" s="5">
+        <v>-123.23</v>
+      </c>
+    </row>
+    <row r="141" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C141">
+        <v>138</v>
+      </c>
+      <c r="D141" s="5">
+        <v>-137.22999999999999</v>
+      </c>
+      <c r="E141" s="5">
+        <v>1.0091000000000001</v>
+      </c>
+      <c r="F141" s="5">
+        <v>-114.02</v>
+      </c>
+    </row>
+    <row r="142" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C142">
+        <v>139</v>
+      </c>
+      <c r="D142" s="5">
+        <v>-275.64999999999998</v>
+      </c>
+      <c r="E142" s="5">
+        <v>-2.444</v>
+      </c>
+      <c r="F142" s="5">
+        <v>-62.692999999999998</v>
+      </c>
+    </row>
+    <row r="143" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C143">
+        <v>140</v>
+      </c>
+      <c r="D143" s="5">
+        <v>-394.71</v>
+      </c>
+      <c r="E143" s="5">
+        <v>9.9284999999999997</v>
+      </c>
+      <c r="F143" s="5">
+        <v>-24.611000000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C144">
+        <v>141</v>
+      </c>
+      <c r="D144" s="5">
+        <v>330.99</v>
+      </c>
+      <c r="E144" s="5">
+        <v>-7.3085000000000004</v>
+      </c>
+      <c r="F144" s="5">
+        <v>-31.181000000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C145">
+        <v>142</v>
+      </c>
+      <c r="D145" s="5">
+        <v>221.45</v>
+      </c>
+      <c r="E145" s="5">
+        <v>1.5783</v>
+      </c>
+      <c r="F145" s="5">
+        <v>-68.768000000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C146">
+        <v>143</v>
+      </c>
+      <c r="D146" s="5">
+        <v>113.41</v>
+      </c>
+      <c r="E146" s="5">
+        <v>-0.31733</v>
+      </c>
+      <c r="F146" s="5">
+        <v>-121.11</v>
+      </c>
+    </row>
+    <row r="147" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C147">
+        <v>144</v>
+      </c>
+      <c r="D147" s="5">
+        <v>2.467E-11</v>
+      </c>
+      <c r="E147" s="5">
+        <v>-2.5374999999999998E-10</v>
+      </c>
+      <c r="F147" s="5">
+        <v>-131.06</v>
+      </c>
+    </row>
+    <row r="148" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C148">
+        <v>145</v>
+      </c>
+      <c r="D148" s="5">
+        <v>-113.41</v>
+      </c>
+      <c r="E148" s="5">
+        <v>0.31733</v>
+      </c>
+      <c r="F148" s="5">
+        <v>-121.11</v>
+      </c>
+    </row>
+    <row r="149" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C149">
+        <v>146</v>
+      </c>
+      <c r="D149" s="5">
+        <v>-221.45</v>
+      </c>
+      <c r="E149" s="5">
+        <v>-1.5783</v>
+      </c>
+      <c r="F149" s="5">
+        <v>-68.768000000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C150">
+        <v>147</v>
+      </c>
+      <c r="D150" s="5">
+        <v>-330.99</v>
+      </c>
+      <c r="E150" s="5">
+        <v>7.3085000000000004</v>
+      </c>
+      <c r="F150" s="5">
+        <v>-31.181000000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C151">
+        <v>148</v>
+      </c>
+      <c r="D151" s="5">
+        <v>227.2</v>
+      </c>
+      <c r="E151" s="5">
+        <v>-6.8338000000000001</v>
+      </c>
+      <c r="F151" s="5">
+        <v>-27.547999999999998</v>
+      </c>
+    </row>
+    <row r="152" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C152">
+        <v>149</v>
+      </c>
+      <c r="D152" s="5">
+        <v>155.82</v>
+      </c>
+      <c r="E152" s="5">
+        <v>-0.56194</v>
+      </c>
+      <c r="F152" s="5">
+        <v>-64.853999999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C153">
+        <v>150</v>
+      </c>
+      <c r="D153" s="5">
+        <v>78.626999999999995</v>
+      </c>
+      <c r="E153" s="5">
+        <v>-0.70655000000000001</v>
+      </c>
+      <c r="F153" s="5">
+        <v>-117.04</v>
+      </c>
+    </row>
+    <row r="154" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C154">
+        <v>151</v>
+      </c>
+      <c r="D154" s="5">
+        <v>6.3437000000000003E-11</v>
+      </c>
+      <c r="E154" s="5">
+        <v>-1.8645000000000001E-10</v>
+      </c>
+      <c r="F154" s="5">
+        <v>-125.54</v>
+      </c>
+    </row>
+    <row r="155" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C155">
+        <v>152</v>
+      </c>
+      <c r="D155" s="5">
+        <v>-78.626999999999995</v>
+      </c>
+      <c r="E155" s="5">
+        <v>0.70655000000000001</v>
+      </c>
+      <c r="F155" s="5">
+        <v>-117.04</v>
+      </c>
+    </row>
+    <row r="156" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C156">
+        <v>153</v>
+      </c>
+      <c r="D156" s="5">
+        <v>-155.82</v>
+      </c>
+      <c r="E156" s="5">
+        <v>0.56194</v>
+      </c>
+      <c r="F156" s="5">
+        <v>-64.853999999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C157">
+        <v>154</v>
+      </c>
+      <c r="D157" s="5">
+        <v>-227.2</v>
+      </c>
+      <c r="E157" s="5">
+        <v>6.8338000000000001</v>
+      </c>
+      <c r="F157" s="5">
+        <v>-27.547999999999998</v>
+      </c>
+    </row>
+    <row r="158" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C158">
+        <v>155</v>
+      </c>
+      <c r="D158" s="5">
+        <v>149.6</v>
+      </c>
+      <c r="E158" s="5">
+        <v>-6.6113</v>
+      </c>
+      <c r="F158" s="5">
+        <v>-26.207000000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C159">
+        <v>156</v>
+      </c>
+      <c r="D159" s="5">
+        <v>108.75</v>
+      </c>
+      <c r="E159" s="5">
+        <v>-2.2696999999999998</v>
+      </c>
+      <c r="F159" s="5">
+        <v>-63.008000000000003</v>
+      </c>
+    </row>
+    <row r="160" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C160">
+        <v>157</v>
+      </c>
+      <c r="D160" s="5">
+        <v>54.16</v>
+      </c>
+      <c r="E160" s="5">
+        <v>-2.7107999999999999</v>
+      </c>
+      <c r="F160" s="5">
+        <v>-112.22</v>
+      </c>
+    </row>
+    <row r="161" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C161">
+        <v>158</v>
+      </c>
+      <c r="D161" s="5">
+        <v>3.1036999999999997E-11</v>
+      </c>
+      <c r="E161" s="5">
+        <v>1.1323000000000001E-10</v>
+      </c>
+      <c r="F161" s="5">
+        <v>-121.75</v>
+      </c>
+    </row>
+    <row r="162" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C162">
+        <v>159</v>
+      </c>
+      <c r="D162" s="5">
+        <v>-54.16</v>
+      </c>
+      <c r="E162" s="5">
+        <v>2.7107999999999999</v>
+      </c>
+      <c r="F162" s="5">
+        <v>-112.22</v>
+      </c>
+    </row>
+    <row r="163" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C163">
+        <v>160</v>
+      </c>
+      <c r="D163" s="5">
+        <v>-108.75</v>
+      </c>
+      <c r="E163" s="5">
+        <v>2.2696999999999998</v>
+      </c>
+      <c r="F163" s="5">
+        <v>-63.008000000000003</v>
+      </c>
+    </row>
+    <row r="164" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C164">
+        <v>161</v>
+      </c>
+      <c r="D164" s="5">
+        <v>-149.6</v>
+      </c>
+      <c r="E164" s="5">
+        <v>6.6113</v>
+      </c>
+      <c r="F164" s="5">
+        <v>-26.207000000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C165">
+        <v>162</v>
+      </c>
+      <c r="D165" s="5">
+        <v>81.167000000000002</v>
+      </c>
+      <c r="E165" s="5">
+        <v>-1.6641999999999999</v>
+      </c>
+      <c r="F165" s="5">
+        <v>-29.17</v>
+      </c>
+    </row>
+    <row r="166" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C166">
+        <v>163</v>
+      </c>
+      <c r="D166" s="5">
+        <v>50.945999999999998</v>
+      </c>
+      <c r="E166" s="5">
+        <v>0.54235999999999995</v>
+      </c>
+      <c r="F166" s="5">
+        <v>-66.843000000000004</v>
+      </c>
+    </row>
+    <row r="167" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C167">
+        <v>164</v>
+      </c>
+      <c r="D167" s="5">
+        <v>26.757999999999999</v>
+      </c>
+      <c r="E167" s="5">
+        <v>-0.42013</v>
+      </c>
+      <c r="F167" s="5">
+        <v>-117.54</v>
+      </c>
+    </row>
+    <row r="168" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C168">
+        <v>165</v>
+      </c>
+      <c r="D168" s="5">
+        <v>-6.2072999999999999E-11</v>
+      </c>
+      <c r="E168" s="5">
+        <v>1.5007E-10</v>
+      </c>
+      <c r="F168" s="5">
+        <v>-128.58000000000001</v>
+      </c>
+    </row>
+    <row r="169" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C169">
+        <v>166</v>
+      </c>
+      <c r="D169" s="5">
+        <v>-26.757999999999999</v>
+      </c>
+      <c r="E169" s="5">
+        <v>0.42013</v>
+      </c>
+      <c r="F169" s="5">
+        <v>-117.54</v>
+      </c>
+    </row>
+    <row r="170" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C170">
+        <v>167</v>
+      </c>
+      <c r="D170" s="5">
+        <v>-50.945999999999998</v>
+      </c>
+      <c r="E170" s="5">
+        <v>-0.54235999999999995</v>
+      </c>
+      <c r="F170" s="5">
+        <v>-66.843000000000004</v>
+      </c>
+    </row>
+    <row r="171" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C171">
+        <v>168</v>
+      </c>
+      <c r="D171" s="5">
+        <v>-81.167000000000002</v>
+      </c>
+      <c r="E171" s="5">
+        <v>1.6641999999999999</v>
+      </c>
+      <c r="F171" s="5">
+        <v>-29.17</v>
+      </c>
+    </row>
+    <row r="172" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C172">
+        <v>169</v>
+      </c>
+      <c r="D172" s="5">
+        <v>14.497</v>
+      </c>
+      <c r="E172" s="5">
+        <v>2.9405000000000001</v>
+      </c>
+      <c r="F172" s="5">
+        <v>-29.934000000000001</v>
+      </c>
+    </row>
+    <row r="173" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C173">
+        <v>170</v>
+      </c>
+      <c r="D173" s="5">
+        <v>23.907</v>
+      </c>
+      <c r="E173" s="5">
+        <v>11.166</v>
+      </c>
+      <c r="F173" s="5">
+        <v>-66.375</v>
+      </c>
+    </row>
+    <row r="174" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C174">
+        <v>171</v>
+      </c>
+      <c r="D174" s="5">
+        <v>12.074</v>
+      </c>
+      <c r="E174" s="5">
+        <v>7.6839000000000004</v>
+      </c>
+      <c r="F174" s="5">
+        <v>-112.9</v>
+      </c>
+    </row>
+    <row r="175" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C175">
+        <v>172</v>
+      </c>
+      <c r="D175" s="5">
+        <v>-3.4560999999999997E-11</v>
+      </c>
+      <c r="E175" s="5">
+        <v>2.0736E-10</v>
+      </c>
+      <c r="F175" s="5">
+        <v>-124.39</v>
+      </c>
+    </row>
+    <row r="176" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C176">
+        <v>173</v>
+      </c>
+      <c r="D176" s="5">
+        <v>-12.074</v>
+      </c>
+      <c r="E176" s="5">
+        <v>-7.6839000000000004</v>
+      </c>
+      <c r="F176" s="5">
+        <v>-112.9</v>
+      </c>
+    </row>
+    <row r="177" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C177">
+        <v>174</v>
+      </c>
+      <c r="D177" s="5">
+        <v>-23.907</v>
+      </c>
+      <c r="E177" s="5">
+        <v>-11.166</v>
+      </c>
+      <c r="F177" s="5">
+        <v>-66.375</v>
+      </c>
+    </row>
+    <row r="178" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C178">
+        <v>175</v>
+      </c>
+      <c r="D178" s="5">
+        <v>-14.497</v>
+      </c>
+      <c r="E178" s="5">
+        <v>-2.9405000000000001</v>
+      </c>
+      <c r="F178" s="5">
+        <v>-29.934000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:K24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="7.33203125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <f>K4^3/12</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>-6</v>
+      </c>
+      <c r="C12">
+        <f>$K$3/2/$K$5*($K$4^2/4-B12^2)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>-31.899000000000001</v>
+      </c>
+      <c r="H12" s="17">
+        <v>85</v>
+      </c>
+      <c r="I12" s="18">
+        <v>24</v>
+      </c>
+      <c r="J12" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>-5</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:C24" si="0">$K$3/2/$K$5*($K$4^2/4-B13^2)</f>
+        <v>-38.194444444444443</v>
+      </c>
+      <c r="H13" s="20">
+        <v>86</v>
+      </c>
+      <c r="I13" s="4">
+        <v>24</v>
+      </c>
+      <c r="J13" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>-4</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>-69.444444444444443</v>
+      </c>
+      <c r="E14" s="7">
+        <v>-66.944000000000003</v>
+      </c>
+      <c r="F14" s="27">
+        <f>ABS((C14-E14)/C14)</f>
+        <v>3.6006399999999938E-2</v>
+      </c>
+      <c r="H14" s="22">
+        <v>87</v>
+      </c>
+      <c r="I14" s="3">
+        <v>24</v>
+      </c>
+      <c r="J14" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>-3</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>-93.75</v>
+      </c>
+      <c r="H15" s="20">
+        <v>88</v>
+      </c>
+      <c r="I15" s="4">
+        <v>24</v>
+      </c>
+      <c r="J15" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>-2</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>-111.11111111111111</v>
+      </c>
+      <c r="E16" s="6">
+        <v>-117.47</v>
+      </c>
+      <c r="F16" s="27">
+        <f t="shared" ref="F15:F25" si="1">ABS((C16-E16)/C16)</f>
+        <v>5.7229999999999961E-2</v>
+      </c>
+      <c r="H16" s="22">
+        <v>89</v>
+      </c>
+      <c r="I16" s="3">
+        <v>24</v>
+      </c>
+      <c r="J16" s="23">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>-1</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>-121.52777777777779</v>
+      </c>
+      <c r="H17" s="20">
+        <v>90</v>
+      </c>
+      <c r="I17" s="4">
+        <v>24</v>
+      </c>
+      <c r="J17" s="21">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>-125</v>
+      </c>
+      <c r="E18" s="7">
+        <v>-127.24</v>
+      </c>
+      <c r="F18" s="27">
+        <f t="shared" si="1"/>
+        <v>1.791999999999996E-2</v>
+      </c>
+      <c r="H18" s="24">
+        <v>91</v>
+      </c>
+      <c r="I18" s="25">
+        <v>24</v>
+      </c>
+      <c r="J18" s="26">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>-121.52777777777779</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>-111.11111111111111</v>
+      </c>
+      <c r="E20" s="6">
+        <v>-117.47</v>
+      </c>
+      <c r="F20" s="27">
+        <f t="shared" si="1"/>
+        <v>5.7229999999999961E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>-93.75</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>-69.444444444444443</v>
+      </c>
+      <c r="E22" s="7">
+        <v>-66.944000000000003</v>
+      </c>
+      <c r="F22" s="27">
+        <f t="shared" si="1"/>
+        <v>3.6006399999999938E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>-38.194444444444443</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>-31.899000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Pre & Post-processing.xlsx
+++ b/Pre & Post-processing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="110" windowWidth="27960" windowHeight="13860" tabRatio="700" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="110" windowWidth="27960" windowHeight="13860" tabRatio="700" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Pre-process 175 Nodes" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t>Столбец1</t>
   </si>
@@ -115,6 +115,15 @@
   </si>
   <si>
     <t xml:space="preserve">horiz = </t>
+  </si>
+  <si>
+    <t>№ точки</t>
+  </si>
+  <si>
+    <t>Координата Х</t>
+  </si>
+  <si>
+    <t>Координата Y</t>
   </si>
 </sst>
 </file>
@@ -467,6 +476,29 @@
   </cellStyles>
   <dxfs count="13">
     <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="8"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -491,29 +523,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color theme="8"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="8"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -3658,7 +3667,6 @@
         <c:majorGridlines/>
         <c:minorGridlines/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3679,7 +3687,6 @@
         <c:majorGridlines/>
         <c:minorGridlines/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3693,7 +3700,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6808,7 +6814,7 @@
             <c:numRef>
               <c:f>'Shear Stress 189'!$D$12:$D$20</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>-26.946000000000002</c:v>
@@ -8594,8 +8600,8 @@
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2797175" cy="624979"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -8832,7 +8838,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -9005,13 +9011,13 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Таблица7" displayName="Таблица7" ref="C2:F191" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Таблица7" displayName="Таблица7" ref="C2:F191" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="C2:F191"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Node"/>
-    <tableColumn id="2" name="Sigma_x" dataDxfId="3"/>
-    <tableColumn id="3" name="Sigma_y" dataDxfId="2"/>
-    <tableColumn id="4" name="Tau_xy" dataDxfId="1"/>
+    <tableColumn id="2" name="Sigma_x" dataDxfId="2"/>
+    <tableColumn id="3" name="Sigma_y" dataDxfId="1"/>
+    <tableColumn id="4" name="Tau_xy" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9306,8 +9312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H176"/>
   <sheetViews>
-    <sheetView topLeftCell="A152" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D177" sqref="D177"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12027,7 +12033,7 @@
         <v>2.4</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:C43" si="2">C11-$K$2</f>
+        <f t="shared" ref="C12" si="2">C11-$K$2</f>
         <v>4.5</v>
       </c>
       <c r="F12">
@@ -12224,7 +12230,7 @@
         <v>4.8</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21:C52" si="3">C20-$K$2</f>
+        <f t="shared" ref="C21" si="3">C20-$K$2</f>
         <v>4.5</v>
       </c>
       <c r="F21">
@@ -12421,7 +12427,7 @@
         <v>7.1999999999999993</v>
       </c>
       <c r="C30">
-        <f t="shared" ref="C30:C61" si="4">C29-$K$2</f>
+        <f t="shared" ref="C30" si="4">C29-$K$2</f>
         <v>4.5</v>
       </c>
       <c r="F30">
@@ -12618,7 +12624,7 @@
         <v>9.6</v>
       </c>
       <c r="C39">
-        <f t="shared" ref="C39:C70" si="5">C38-$K$2</f>
+        <f t="shared" ref="C39" si="5">C38-$K$2</f>
         <v>4.5</v>
       </c>
       <c r="F39">
@@ -12815,7 +12821,7 @@
         <v>12</v>
       </c>
       <c r="C48">
-        <f t="shared" ref="C48:C79" si="6">C47-$K$2</f>
+        <f t="shared" ref="C48" si="6">C47-$K$2</f>
         <v>4.5</v>
       </c>
       <c r="F48">
@@ -13012,7 +13018,7 @@
         <v>14.4</v>
       </c>
       <c r="C57">
-        <f t="shared" ref="C57:C88" si="7">C56-$K$2</f>
+        <f t="shared" ref="C57" si="7">C56-$K$2</f>
         <v>4.5</v>
       </c>
       <c r="F57">
@@ -13137,7 +13143,7 @@
         <v>16.8</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C97" si="8">C65-$K$2</f>
+        <f t="shared" ref="C66" si="8">C65-$K$2</f>
         <v>4.5</v>
       </c>
     </row>
@@ -13253,7 +13259,7 @@
         <v>19.2</v>
       </c>
       <c r="C75">
-        <f t="shared" ref="C75:C106" si="10">C74-$K$2</f>
+        <f t="shared" ref="C75" si="10">C74-$K$2</f>
         <v>4.5</v>
       </c>
     </row>
@@ -13369,7 +13375,7 @@
         <v>21.599999999999998</v>
       </c>
       <c r="C84">
-        <f t="shared" ref="C84:C115" si="12">C83-$K$2</f>
+        <f t="shared" ref="C84" si="12">C83-$K$2</f>
         <v>4.5</v>
       </c>
     </row>
@@ -13485,7 +13491,7 @@
         <v>23.999999999999996</v>
       </c>
       <c r="C93">
-        <f t="shared" ref="C93:C124" si="13">C92-$K$2</f>
+        <f t="shared" ref="C93" si="13">C92-$K$2</f>
         <v>4.5</v>
       </c>
     </row>
@@ -13601,7 +13607,7 @@
         <v>26.399999999999995</v>
       </c>
       <c r="C102">
-        <f t="shared" ref="C102:C133" si="14">C101-$K$2</f>
+        <f t="shared" ref="C102" si="14">C101-$K$2</f>
         <v>4.5</v>
       </c>
     </row>
@@ -13717,7 +13723,7 @@
         <v>28.799999999999994</v>
       </c>
       <c r="C111">
-        <f t="shared" ref="C111:C142" si="15">C110-$K$2</f>
+        <f t="shared" ref="C111" si="15">C110-$K$2</f>
         <v>4.5</v>
       </c>
     </row>
@@ -13833,7 +13839,7 @@
         <v>31.199999999999992</v>
       </c>
       <c r="C120">
-        <f t="shared" ref="C120:C151" si="16">C119-$K$2</f>
+        <f t="shared" ref="C120" si="16">C119-$K$2</f>
         <v>4.5</v>
       </c>
     </row>
@@ -13949,7 +13955,7 @@
         <v>33.599999999999994</v>
       </c>
       <c r="C129">
-        <f t="shared" ref="C129:C160" si="17">C128-$K$2</f>
+        <f t="shared" ref="C129" si="17">C128-$K$2</f>
         <v>4.5</v>
       </c>
     </row>
@@ -14065,7 +14071,7 @@
         <v>35.999999999999993</v>
       </c>
       <c r="C138">
-        <f t="shared" ref="C138:C169" si="19">C137-$K$2</f>
+        <f t="shared" ref="C138" si="19">C137-$K$2</f>
         <v>4.5</v>
       </c>
     </row>
@@ -14181,7 +14187,7 @@
         <v>38.399999999999991</v>
       </c>
       <c r="C147">
-        <f t="shared" ref="C147:C190" si="21">C146-$K$2</f>
+        <f t="shared" ref="C147" si="21">C146-$K$2</f>
         <v>4.5</v>
       </c>
     </row>
@@ -14297,7 +14303,7 @@
         <v>40.79999999999999</v>
       </c>
       <c r="C156">
-        <f t="shared" ref="C156:C190" si="22">C155-$K$2</f>
+        <f t="shared" ref="C156" si="22">C155-$K$2</f>
         <v>4.5</v>
       </c>
     </row>
@@ -14413,7 +14419,7 @@
         <v>43.199999999999989</v>
       </c>
       <c r="C165">
-        <f t="shared" ref="C165:C190" si="23">C164-$K$2</f>
+        <f t="shared" ref="C165" si="23">C164-$K$2</f>
         <v>4.5</v>
       </c>
     </row>
@@ -14529,7 +14535,7 @@
         <v>45.599999999999987</v>
       </c>
       <c r="C174">
-        <f t="shared" ref="C174:C190" si="24">C173-$K$2</f>
+        <f t="shared" ref="C174" si="24">C173-$K$2</f>
         <v>4.5</v>
       </c>
     </row>
@@ -14645,7 +14651,7 @@
         <v>47.999999999999986</v>
       </c>
       <c r="C183">
-        <f t="shared" ref="C183:C190" si="25">C182-$K$2</f>
+        <f t="shared" ref="C183" si="25">C182-$K$2</f>
         <v>4.5</v>
       </c>
     </row>
@@ -14754,7 +14760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:L178"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -18129,7 +18135,7 @@
   <dimension ref="C3:F178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:F3"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -20615,7 +20621,7 @@
   <dimension ref="B3:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -20915,8 +20921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -21005,7 +21011,7 @@
         <v>4.5</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:C24" si="0">$K$3/2/$K$5*($K$4^2/4-B13^2)</f>
+        <f t="shared" ref="C13:C20" si="0">$K$3/2/$K$5*($K$4^2/4-B13^2)</f>
         <v>-54.6875</v>
       </c>
       <c r="D13" s="31">
@@ -21160,8 +21166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:K191"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93:F101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -21169,6 +21175,7 @@
     <col min="4" max="4" width="9.9140625" style="28" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" style="28" customWidth="1"/>
     <col min="6" max="6" width="9.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -21253,6 +21260,15 @@
       </c>
       <c r="F7" s="28">
         <v>-393</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.3">
